--- a/Doc/ExcelConfig/Datas/道具/ItemConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/道具/ItemConfig.xlsx
@@ -1277,7 +1277,7 @@
   <dimension ref="A1:P52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="C9" sqref="C9:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1532,6 +1532,9 @@
       <c r="B9" s="10">
         <v>10001</v>
       </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
       <c r="E9" s="10" t="s">
         <v>46</v>
       </c>
@@ -1558,6 +1561,9 @@
       <c r="B10" s="10">
         <v>10002</v>
       </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
       <c r="E10" s="10" t="s">
         <v>51</v>
       </c>
@@ -1581,6 +1587,9 @@
       <c r="B11" s="10">
         <v>10003</v>
       </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="E11" s="10" t="s">
         <v>51</v>
       </c>
@@ -1604,6 +1613,9 @@
       <c r="B12" s="10">
         <v>10004</v>
       </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="E12" s="10" t="s">
         <v>55</v>
       </c>
@@ -1632,6 +1644,9 @@
       <c r="B13" s="10">
         <v>10005</v>
       </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10">
         <v>410001</v>
@@ -1650,6 +1665,9 @@
       <c r="B14" s="10">
         <v>10006</v>
       </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="E14" s="10" t="s">
         <v>60</v>
       </c>
@@ -1679,6 +1697,9 @@
       <c r="B15" s="10">
         <v>10007</v>
       </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10">
         <v>410003</v>
@@ -1700,6 +1721,9 @@
       <c r="B16" s="10">
         <v>10008</v>
       </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10">
         <v>410004</v>
@@ -1721,6 +1745,9 @@
       <c r="B17" s="10">
         <v>10009</v>
       </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
       <c r="E17" s="9" t="s">
         <v>69</v>
       </c>
@@ -1750,6 +1777,9 @@
       <c r="B18" s="10">
         <v>10010</v>
       </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="E18" s="9" t="s">
         <v>72</v>
       </c>
@@ -1779,6 +1809,9 @@
       <c r="B19" s="10">
         <v>10011</v>
       </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
       <c r="E19" s="10" t="s">
         <v>75</v>
       </c>
@@ -1802,6 +1835,9 @@
       <c r="B20" s="10">
         <v>10012</v>
       </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
       <c r="E20" s="10" t="s">
         <v>78</v>
       </c>
@@ -1825,6 +1861,9 @@
       <c r="B21" s="10">
         <v>10013</v>
       </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
       <c r="E21" s="10" t="s">
         <v>80</v>
       </c>
@@ -1848,6 +1887,9 @@
       <c r="B22" s="10">
         <v>10014</v>
       </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
       <c r="E22" s="10" t="s">
         <v>82</v>
       </c>
@@ -1871,6 +1913,9 @@
       <c r="B23" s="10">
         <v>10015</v>
       </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
       <c r="E23" s="10" t="s">
         <v>84</v>
       </c>
@@ -1893,6 +1938,9 @@
     <row r="24" spans="2:15">
       <c r="B24" s="10">
         <v>10016</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>86</v>

--- a/Doc/ExcelConfig/Datas/道具/ItemConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/道具/ItemConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="338">
   <si>
     <t>##</t>
   </si>
@@ -68,6 +68,9 @@
     <t>BatchUseable</t>
   </si>
   <si>
+    <t>BindHeroName</t>
+  </si>
+  <si>
     <t>UseScript</t>
   </si>
   <si>
@@ -83,7 +86,7 @@
     <t>ScriptName</t>
   </si>
   <si>
-    <t>ScriptValue#sep=|</t>
+    <t>ScriptValue</t>
   </si>
   <si>
     <t>##type</t>
@@ -149,6 +152,9 @@
     <t>批量使用</t>
   </si>
   <si>
+    <t>绑定英雄</t>
+  </si>
+  <si>
     <t>使用脚本</t>
   </si>
   <si>
@@ -179,6 +185,9 @@
     <t>R</t>
   </si>
   <si>
+    <t>Treasure</t>
+  </si>
+  <si>
     <t>这是一件11111</t>
   </si>
   <si>
@@ -206,97 +215,838 @@
     <t>这是一件11114</t>
   </si>
   <si>
+    <t>这是一件11115</t>
+  </si>
+  <si>
+    <t>英雄经验</t>
+  </si>
+  <si>
+    <t>这是一件11116</t>
+  </si>
+  <si>
+    <t>AllowMany</t>
+  </si>
+  <si>
+    <t>building_hero_abaddon</t>
+  </si>
+  <si>
+    <t>AddHeroExp</t>
+  </si>
+  <si>
+    <t>这是一件11117</t>
+  </si>
+  <si>
+    <t>ForbidMany</t>
+  </si>
+  <si>
+    <t>这是一件11118</t>
+  </si>
+  <si>
+    <t>NoSlot</t>
+  </si>
+  <si>
+    <t>祝福1</t>
+  </si>
+  <si>
+    <t>这是一件11119</t>
+  </si>
+  <si>
+    <t>AddBuff</t>
+  </si>
+  <si>
+    <t>称号1</t>
+  </si>
+  <si>
+    <t>这是一件11120</t>
+  </si>
+  <si>
+    <t>AddTitle</t>
+  </si>
+  <si>
+    <t>测试宝箱2</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>这是一件11121</t>
+  </si>
+  <si>
+    <t>测试宝箱3</t>
+  </si>
+  <si>
+    <t>这是一件11122</t>
+  </si>
+  <si>
+    <t>测试宝箱4</t>
+  </si>
+  <si>
+    <t>这是一件11123</t>
+  </si>
+  <si>
+    <t>测试宝箱5</t>
+  </si>
+  <si>
+    <t>这是一件11124</t>
+  </si>
+  <si>
+    <t>测试宝箱6</t>
+  </si>
+  <si>
+    <t>这是一件11125</t>
+  </si>
+  <si>
+    <t>测试宝箱7</t>
+  </si>
+  <si>
+    <t>这是一件11126</t>
+  </si>
+  <si>
+    <t>亚巴顿符石</t>
+  </si>
+  <si>
+    <t>Equip</t>
+  </si>
+  <si>
+    <t>这是符石</t>
+  </si>
+  <si>
     <t>DressUp</t>
   </si>
   <si>
     <t>BindEquip</t>
   </si>
   <si>
-    <t>这是一件11115</t>
-  </si>
-  <si>
-    <t>英雄经验</t>
-  </si>
-  <si>
-    <t>这是一件11116</t>
-  </si>
-  <si>
-    <t>AllowMany</t>
-  </si>
-  <si>
-    <t>AddHeroExp</t>
-  </si>
-  <si>
-    <t>10001|100</t>
-  </si>
-  <si>
-    <t>这是一件11117</t>
-  </si>
-  <si>
-    <t>ForbidMany</t>
-  </si>
-  <si>
-    <t>这是一件11118</t>
-  </si>
-  <si>
-    <t>NoSlot</t>
-  </si>
-  <si>
-    <t>祝福1</t>
-  </si>
-  <si>
-    <t>这是一件11119</t>
-  </si>
-  <si>
-    <t>AddBuff</t>
-  </si>
-  <si>
-    <t>称号1</t>
-  </si>
-  <si>
-    <t>这是一件11120</t>
-  </si>
-  <si>
-    <t>AddTitle</t>
-  </si>
-  <si>
-    <t>测试宝箱2</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>这是一件11121</t>
-  </si>
-  <si>
-    <t>测试宝箱3</t>
-  </si>
-  <si>
-    <t>这是一件11122</t>
-  </si>
-  <si>
-    <t>测试宝箱4</t>
-  </si>
-  <si>
-    <t>这是一件11123</t>
-  </si>
-  <si>
-    <t>测试宝箱5</t>
-  </si>
-  <si>
-    <t>这是一件11124</t>
-  </si>
-  <si>
-    <t>测试宝箱6</t>
-  </si>
-  <si>
-    <t>这是一件11125</t>
-  </si>
-  <si>
-    <t>测试宝箱7</t>
-  </si>
-  <si>
-    <t>这是一件11126</t>
+    <t>孽主符石</t>
+  </si>
+  <si>
+    <t>building_hero_abyssal_underlord</t>
+  </si>
+  <si>
+    <t>炼金符石</t>
+  </si>
+  <si>
+    <t>building_hero_alchemist</t>
+  </si>
+  <si>
+    <t>远古冰魄符石</t>
+  </si>
+  <si>
+    <t>building_hero_ancient_apparition</t>
+  </si>
+  <si>
+    <t>敌法师符石</t>
+  </si>
+  <si>
+    <t>building_hero_antimage</t>
+  </si>
+  <si>
+    <t>天穹守望者符石</t>
+  </si>
+  <si>
+    <t>building_hero_arc_warden</t>
+  </si>
+  <si>
+    <t>斧王符石</t>
+  </si>
+  <si>
+    <t>building_hero_axe</t>
+  </si>
+  <si>
+    <t>祸乱之源符石</t>
+  </si>
+  <si>
+    <t>building_hero_bane</t>
+  </si>
+  <si>
+    <t>蝙蝠骑士符石</t>
+  </si>
+  <si>
+    <t>building_hero_batrider</t>
+  </si>
+  <si>
+    <t>兽王符石</t>
+  </si>
+  <si>
+    <t>building_hero_beastmaster</t>
+  </si>
+  <si>
+    <t>血魔符石</t>
+  </si>
+  <si>
+    <t>building_hero_bloodseeker</t>
+  </si>
+  <si>
+    <t>赏金猎人符石</t>
+  </si>
+  <si>
+    <t>building_hero_bounty_hunter</t>
+  </si>
+  <si>
+    <t>熊猫酒仙符石</t>
+  </si>
+  <si>
+    <t>building_hero_brewmaster</t>
+  </si>
+  <si>
+    <t>刚被兽符石</t>
+  </si>
+  <si>
+    <t>building_hero_bristleback</t>
+  </si>
+  <si>
+    <t>蜘蛛符石</t>
+  </si>
+  <si>
+    <t>building_hero_broodmother</t>
+  </si>
+  <si>
+    <t>半人马战行者符石</t>
+  </si>
+  <si>
+    <t>building_hero_centaur</t>
+  </si>
+  <si>
+    <t>混沌骑士符石</t>
+  </si>
+  <si>
+    <t>building_hero_chaos_knight</t>
+  </si>
+  <si>
+    <t>陈符石</t>
+  </si>
+  <si>
+    <t>building_hero_chen</t>
+  </si>
+  <si>
+    <t>克林克兹符石</t>
+  </si>
+  <si>
+    <t>building_hero_clinkz</t>
+  </si>
+  <si>
+    <t>水晶室女符石</t>
+  </si>
+  <si>
+    <t>building_hero_crystal_maiden</t>
+  </si>
+  <si>
+    <t>黑暗贤者符石</t>
+  </si>
+  <si>
+    <t>building_hero_dark_seer</t>
+  </si>
+  <si>
+    <t>邪影芳灵符石</t>
+  </si>
+  <si>
+    <t>building_hero_dark_willow</t>
+  </si>
+  <si>
+    <t>破晓辰星符石</t>
+  </si>
+  <si>
+    <t>building_hero_dawnbreaker</t>
+  </si>
+  <si>
+    <t>戴泽符石</t>
+  </si>
+  <si>
+    <t>building_hero_dazzle</t>
+  </si>
+  <si>
+    <t>死亡先知符石</t>
+  </si>
+  <si>
+    <t>building_hero_death_prophet</t>
+  </si>
+  <si>
+    <t>干扰者符石</t>
+  </si>
+  <si>
+    <t>building_hero_disruptor</t>
+  </si>
+  <si>
+    <t>末日符石</t>
+  </si>
+  <si>
+    <t>building_hero_doom_bringer</t>
+  </si>
+  <si>
+    <t>龙骑士符石</t>
+  </si>
+  <si>
+    <t>building_hero_dragon_knight</t>
+  </si>
+  <si>
+    <t>卓尔游侠符石</t>
+  </si>
+  <si>
+    <t>building_hero_drow_ranger</t>
+  </si>
+  <si>
+    <t>大地之灵符石</t>
+  </si>
+  <si>
+    <t>building_hero_earth_spirit</t>
+  </si>
+  <si>
+    <t>撼地者符石</t>
+  </si>
+  <si>
+    <t>building_hero_earthshaker</t>
+  </si>
+  <si>
+    <t>上古巨神符石</t>
+  </si>
+  <si>
+    <t>building_hero_elder_titan</t>
+  </si>
+  <si>
+    <t>灰烬之灵符石</t>
+  </si>
+  <si>
+    <t>building_hero_ember_spirit</t>
+  </si>
+  <si>
+    <t>魅惑魔女符石</t>
+  </si>
+  <si>
+    <t>building_hero_enchantress</t>
+  </si>
+  <si>
+    <t>谜团符石</t>
+  </si>
+  <si>
+    <t>building_hero_enigma</t>
+  </si>
+  <si>
+    <t>JB脸符石</t>
+  </si>
+  <si>
+    <t>building_hero_faceless_void</t>
+  </si>
+  <si>
+    <t>先知符石</t>
+  </si>
+  <si>
+    <t>building_hero_furion</t>
+  </si>
+  <si>
+    <t>天涯墨客符石</t>
+  </si>
+  <si>
+    <t>building_hero_grimstroke</t>
+  </si>
+  <si>
+    <t>矮人直升机符石</t>
+  </si>
+  <si>
+    <t>building_hero_gyrocopter</t>
+  </si>
+  <si>
+    <t>小松鼠符石</t>
+  </si>
+  <si>
+    <t>building_hero_hoodwink</t>
+  </si>
+  <si>
+    <t>神灵武士符石</t>
+  </si>
+  <si>
+    <t>building_hero_huskar</t>
+  </si>
+  <si>
+    <t>祈求着符石</t>
+  </si>
+  <si>
+    <t>building_hero_invoker</t>
+  </si>
+  <si>
+    <t>双头龙符石</t>
+  </si>
+  <si>
+    <t>building_hero_jakiro</t>
+  </si>
+  <si>
+    <t>主宰符石</t>
+  </si>
+  <si>
+    <t>building_hero_juggernaut</t>
+  </si>
+  <si>
+    <t>光法符石</t>
+  </si>
+  <si>
+    <t>building_hero_keeper_of_the_light</t>
+  </si>
+  <si>
+    <t>船长符石</t>
+  </si>
+  <si>
+    <t>building_hero_kunkka</t>
+  </si>
+  <si>
+    <t>军团符石</t>
+  </si>
+  <si>
+    <t>building_hero_legion_commander</t>
+  </si>
+  <si>
+    <t>拉希克符石</t>
+  </si>
+  <si>
+    <t>building_hero_leshrac</t>
+  </si>
+  <si>
+    <t>巫妖符石</t>
+  </si>
+  <si>
+    <t>building_hero_lich</t>
+  </si>
+  <si>
+    <t>小狗符石</t>
+  </si>
+  <si>
+    <t>building_hero_life_stealer</t>
+  </si>
+  <si>
+    <t>莉娜符石</t>
+  </si>
+  <si>
+    <t>building_hero_lina</t>
+  </si>
+  <si>
+    <t>莱恩符石</t>
+  </si>
+  <si>
+    <t>building_hero_lion</t>
+  </si>
+  <si>
+    <t>德鲁伊符石</t>
+  </si>
+  <si>
+    <t>building_hero_lone_druid</t>
+  </si>
+  <si>
+    <t>露娜符石</t>
+  </si>
+  <si>
+    <t>building_hero_luna</t>
+  </si>
+  <si>
+    <t>狼人符石</t>
+  </si>
+  <si>
+    <t>building_hero_lycan</t>
+  </si>
+  <si>
+    <t>马格纳斯符石</t>
+  </si>
+  <si>
+    <t>building_hero_magnataur</t>
+  </si>
+  <si>
+    <t>玛西符石</t>
+  </si>
+  <si>
+    <t>building_hero_marci</t>
+  </si>
+  <si>
+    <t>马尔斯符石</t>
+  </si>
+  <si>
+    <t>building_hero_mars</t>
+  </si>
+  <si>
+    <t>美杜莎符石</t>
+  </si>
+  <si>
+    <t>building_hero_medusa</t>
+  </si>
+  <si>
+    <t>米波符石</t>
+  </si>
+  <si>
+    <t>building_hero_meepo</t>
+  </si>
+  <si>
+    <t>米拉娜符石</t>
+  </si>
+  <si>
+    <t>building_hero_mirana</t>
+  </si>
+  <si>
+    <t>大圣符石</t>
+  </si>
+  <si>
+    <t>building_hero_monkey_king</t>
+  </si>
+  <si>
+    <t>水人符石</t>
+  </si>
+  <si>
+    <t>building_hero_morphling</t>
+  </si>
+  <si>
+    <t>娜迦海妖符石</t>
+  </si>
+  <si>
+    <t>building_hero_naga_siren</t>
+  </si>
+  <si>
+    <t>瘟疫法师符石</t>
+  </si>
+  <si>
+    <t>building_hero_necrolyte</t>
+  </si>
+  <si>
+    <t>影魔符石</t>
+  </si>
+  <si>
+    <t>building_hero_nevermore</t>
+  </si>
+  <si>
+    <t>暗夜魔王符石</t>
+  </si>
+  <si>
+    <t>building_hero_night_stalker</t>
+  </si>
+  <si>
+    <t>小强符石</t>
+  </si>
+  <si>
+    <t>building_hero_nyx_assassin</t>
+  </si>
+  <si>
+    <t>黑鸟符石</t>
+  </si>
+  <si>
+    <t>building_hero_obsidian_destroyer</t>
+  </si>
+  <si>
+    <t>食人魔魔法师符石</t>
+  </si>
+  <si>
+    <t>building_hero_ogre_magi</t>
+  </si>
+  <si>
+    <t>全能骑士符石</t>
+  </si>
+  <si>
+    <t>building_hero_omniknight</t>
+  </si>
+  <si>
+    <t>神谕者符石</t>
+  </si>
+  <si>
+    <t>building_hero_oracle</t>
+  </si>
+  <si>
+    <t>石鳞剑士符石</t>
+  </si>
+  <si>
+    <t>building_hero_pangolier</t>
+  </si>
+  <si>
+    <t>幻影刺客符石</t>
+  </si>
+  <si>
+    <t>building_hero_phantom_assassin</t>
+  </si>
+  <si>
+    <t>幻影长矛手符石</t>
+  </si>
+  <si>
+    <t>building_hero_phantom_lancer</t>
+  </si>
+  <si>
+    <t>凤凰符石</t>
+  </si>
+  <si>
+    <t>building_hero_phoenix</t>
+  </si>
+  <si>
+    <t>獸符石</t>
+  </si>
+  <si>
+    <t>building_hero_primal_beast</t>
+  </si>
+  <si>
+    <t>帕克符石</t>
+  </si>
+  <si>
+    <t>building_hero_puck</t>
+  </si>
+  <si>
+    <t>屠夫符石</t>
+  </si>
+  <si>
+    <t>building_hero_pudge</t>
+  </si>
+  <si>
+    <t>帕格纳符石</t>
+  </si>
+  <si>
+    <t>building_hero_pugna</t>
+  </si>
+  <si>
+    <t>痛苦女王符石</t>
+  </si>
+  <si>
+    <t>building_hero_queenofpain</t>
+  </si>
+  <si>
+    <t>发条地精符石</t>
+  </si>
+  <si>
+    <t>building_hero_rattletrap</t>
+  </si>
+  <si>
+    <t>电棍符石</t>
+  </si>
+  <si>
+    <t>building_hero_razor</t>
+  </si>
+  <si>
+    <t>力丸符石</t>
+  </si>
+  <si>
+    <t>building_hero_riki</t>
+  </si>
+  <si>
+    <t>拉比克符石</t>
+  </si>
+  <si>
+    <t>building_hero_rubick</t>
+  </si>
+  <si>
+    <t>沙王符石</t>
+  </si>
+  <si>
+    <t>building_hero_sandking</t>
+  </si>
+  <si>
+    <t>暗影恶魔符石</t>
+  </si>
+  <si>
+    <t>building_hero_shadow_demon</t>
+  </si>
+  <si>
+    <t>小Y符石</t>
+  </si>
+  <si>
+    <t>building_hero_shadow_shaman</t>
+  </si>
+  <si>
+    <t>伐木机符石</t>
+  </si>
+  <si>
+    <t>building_hero_shredder</t>
+  </si>
+  <si>
+    <t>沉默术士符石</t>
+  </si>
+  <si>
+    <t>building_hero_silencer</t>
+  </si>
+  <si>
+    <t>骷髅王符石</t>
+  </si>
+  <si>
+    <t>building_hero_skeleton_king</t>
+  </si>
+  <si>
+    <t>天怒法师符石</t>
+  </si>
+  <si>
+    <t>building_hero_skywrath_mage</t>
+  </si>
+  <si>
+    <t>斯拉达符石</t>
+  </si>
+  <si>
+    <t>building_hero_slardar</t>
+  </si>
+  <si>
+    <t>斯拉克符石</t>
+  </si>
+  <si>
+    <t>building_hero_slark</t>
+  </si>
+  <si>
+    <t>电炎绝手符石</t>
+  </si>
+  <si>
+    <t>building_hero_snapfire</t>
+  </si>
+  <si>
+    <t>狙击手符石</t>
+  </si>
+  <si>
+    <t>building_hero_sniper</t>
+  </si>
+  <si>
+    <t>幽鬼符石</t>
+  </si>
+  <si>
+    <t>building_hero_spectre</t>
+  </si>
+  <si>
+    <t>裂魂人符石</t>
+  </si>
+  <si>
+    <t>building_hero_spirit_breaker</t>
+  </si>
+  <si>
+    <t>风暴之灵符石</t>
+  </si>
+  <si>
+    <t>building_hero_storm_spirit</t>
+  </si>
+  <si>
+    <t>斯文符石</t>
+  </si>
+  <si>
+    <t>building_hero_sven</t>
+  </si>
+  <si>
+    <t>地精工程师符石</t>
+  </si>
+  <si>
+    <t>building_hero_techies</t>
+  </si>
+  <si>
+    <t>圣堂刺客符石</t>
+  </si>
+  <si>
+    <t>building_hero_templar_assassin</t>
+  </si>
+  <si>
+    <t>灵魂守卫符石</t>
+  </si>
+  <si>
+    <t>building_hero_terrorblade</t>
+  </si>
+  <si>
+    <t>潮汐猎人符石</t>
+  </si>
+  <si>
+    <t>building_hero_tidehunter</t>
+  </si>
+  <si>
+    <t>修补匠符石</t>
+  </si>
+  <si>
+    <t>building_hero_tinker</t>
+  </si>
+  <si>
+    <t>小小符石</t>
+  </si>
+  <si>
+    <t>building_hero_tiny</t>
+  </si>
+  <si>
+    <t>大树符石</t>
+  </si>
+  <si>
+    <t>building_hero_treant</t>
+  </si>
+  <si>
+    <t>巨魔战将符石</t>
+  </si>
+  <si>
+    <t>building_hero_troll_warlord</t>
+  </si>
+  <si>
+    <t>海民符石</t>
+  </si>
+  <si>
+    <t>building_hero_tusk</t>
+  </si>
+  <si>
+    <t>不朽尸王符石</t>
+  </si>
+  <si>
+    <t>building_hero_undying</t>
+  </si>
+  <si>
+    <t>熊战士符石</t>
+  </si>
+  <si>
+    <t>building_hero_ursa</t>
+  </si>
+  <si>
+    <t>复仇之魂符石</t>
+  </si>
+  <si>
+    <t>building_hero_vengefulspirit</t>
+  </si>
+  <si>
+    <t>剧毒术士符石</t>
+  </si>
+  <si>
+    <t>building_hero_venomancer</t>
+  </si>
+  <si>
+    <t>冥界亚龙符石</t>
+  </si>
+  <si>
+    <t>building_hero_viper</t>
+  </si>
+  <si>
+    <t>维萨吉符石</t>
+  </si>
+  <si>
+    <t>building_hero_visage</t>
+  </si>
+  <si>
+    <t>虚无之灵符石</t>
+  </si>
+  <si>
+    <t>building_hero_void_spirit</t>
+  </si>
+  <si>
+    <t>术士符石</t>
+  </si>
+  <si>
+    <t>building_hero_warlock</t>
+  </si>
+  <si>
+    <t>编织者符石</t>
+  </si>
+  <si>
+    <t>building_hero_weaver</t>
+  </si>
+  <si>
+    <t>风行者符石</t>
+  </si>
+  <si>
+    <t>building_hero_windrunner</t>
+  </si>
+  <si>
+    <t>冰霜巨龙符石</t>
+  </si>
+  <si>
+    <t>building_hero_winter_wyvern</t>
+  </si>
+  <si>
+    <t>艾欧符石</t>
+  </si>
+  <si>
+    <t>building_hero_wisp</t>
+  </si>
+  <si>
+    <t>巫医符石</t>
+  </si>
+  <si>
+    <t>building_hero_witch_doctor</t>
+  </si>
+  <si>
+    <t>宙斯符石</t>
+  </si>
+  <si>
+    <t>building_hero_zeus</t>
   </si>
 </sst>
 </file>
@@ -309,7 +1059,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -327,6 +1077,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -774,10 +1531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -786,7 +1543,7 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -795,25 +1552,22 @@
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -825,106 +1579,118 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="7" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -933,13 +1699,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -947,14 +1707,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1274,10 +2040,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:Q147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C24"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1286,772 +2052,5752 @@
     <col min="2" max="2" width="15.875" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="15.375" customWidth="1"/>
+    <col min="5" max="5" width="15.375" style="3" customWidth="1"/>
     <col min="6" max="6" width="11.375" customWidth="1"/>
     <col min="7" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="16.0833333333333" customWidth="1"/>
     <col min="9" max="9" width="14.25" customWidth="1"/>
     <col min="10" max="10" width="19.625" customWidth="1"/>
-    <col min="11" max="11" width="12.75" customWidth="1"/>
+    <col min="11" max="11" width="13.8333333333333" customWidth="1"/>
     <col min="12" max="12" width="12.625" customWidth="1"/>
-    <col min="13" max="13" width="20.875" customWidth="1"/>
-    <col min="14" max="14" width="14.125" customWidth="1"/>
-    <col min="15" max="15" width="16" customWidth="1"/>
-    <col min="16" max="16" width="16.875" customWidth="1"/>
+    <col min="13" max="13" width="33" customWidth="1"/>
+    <col min="14" max="14" width="20.875" customWidth="1"/>
+    <col min="15" max="15" width="14.125" customWidth="1"/>
+    <col min="16" max="16" width="16" customWidth="1"/>
+    <col min="17" max="17" width="16.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:16">
+    <row r="1" s="1" customFormat="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3"/>
-      <c r="E1" s="4" t="s">
+      <c r="D1" s="4"/>
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="3" t="s">
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="O1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="12"/>
-    </row>
-    <row r="2" s="1" customFormat="1" spans="1:16">
+      <c r="P1" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="14"/>
+    </row>
+    <row r="2" s="1" customFormat="1" spans="1:17">
       <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-      <c r="J2" s="3"/>
-      <c r="K2" s="3"/>
-      <c r="L2" s="3"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="3"/>
-      <c r="O2" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="14" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="15" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="17.5" spans="1:16">
+      <c r="Q2" s="18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="17.5" spans="1:17">
       <c r="A3" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="2" t="s">
         <v>20</v>
       </c>
+      <c r="E3" s="7" t="s">
+        <v>21</v>
+      </c>
       <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="L3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="15" t="s">
+      <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="P3" s="12"/>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:16">
+      <c r="P3" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q3" s="14"/>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:17">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="F4" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="G4" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="H4" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="I4" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="J4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="K4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="L4" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="M4" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="N4" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="P4" s="3" t="s">
+      <c r="O4" s="4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="8">
-        <v>1</v>
-      </c>
-      <c r="C5" s="3">
-        <v>1</v>
-      </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="8" t="s">
+      <c r="P4" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="L5" s="3"/>
-      <c r="M5" s="3"/>
-      <c r="N5" s="3"/>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="8">
+      <c r="Q4" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+    </row>
+    <row r="6" spans="2:15">
+      <c r="B6" s="10">
         <v>2</v>
       </c>
-      <c r="C6" s="3">
-        <v>1</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="3"/>
-      <c r="N6" s="3"/>
-    </row>
-    <row r="7" spans="2:5">
-      <c r="B7" s="9">
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="3">
         <v>100</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="4">
         <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>44</v>
-      </c>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="2:5">
-      <c r="B8" s="9">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="3">
         <v>1000</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="4">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
-      </c>
-      <c r="E8" s="9"/>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="10">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15">
+      <c r="B9" s="11">
         <v>10001</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="E9" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="E9" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F9" s="11">
         <v>320001</v>
       </c>
-      <c r="G9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="G9" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H9" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>48</v>
-      </c>
-      <c r="M9" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" t="s">
+        <v>52</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="2:14">
+      <c r="B10" s="11">
+        <v>10002</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="11">
+        <v>330001</v>
+      </c>
+      <c r="G10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="N9" t="s">
+      <c r="H10" s="12" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="2:13">
-      <c r="B10" s="10">
+      <c r="I10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="2:14">
+      <c r="B11" s="11">
+        <v>10003</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="11">
+        <v>500001</v>
+      </c>
+      <c r="G11" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H11" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I11" t="s">
+        <v>57</v>
+      </c>
+      <c r="N11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="11">
+        <v>10004</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="F12" s="11">
+        <v>320002</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I12" t="s">
+        <v>59</v>
+      </c>
+      <c r="K12" s="4"/>
+      <c r="Q12" s="11"/>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="11">
+        <v>10005</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11">
+        <v>410001</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" ht="15.5" spans="2:17">
+      <c r="B14" s="11">
+        <v>10006</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="11">
+        <v>410002</v>
+      </c>
+      <c r="G14" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H14" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I14" t="s">
+        <v>62</v>
+      </c>
+      <c r="J14" t="s">
+        <v>63</v>
+      </c>
+      <c r="M14" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q14">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="B15" s="11">
+        <v>10007</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11">
+        <v>410003</v>
+      </c>
+      <c r="G15" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I15" t="s">
+        <v>66</v>
+      </c>
+      <c r="J15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="B16" s="11">
+        <v>10008</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11">
+        <v>410004</v>
+      </c>
+      <c r="G16" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I16" t="s">
+        <v>68</v>
+      </c>
+      <c r="J16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15">
+      <c r="B17" s="11">
+        <v>10009</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17" s="11">
+        <v>410005</v>
+      </c>
+      <c r="G17" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J17" t="s">
+        <v>63</v>
+      </c>
+      <c r="N17" t="s">
+        <v>72</v>
+      </c>
+      <c r="O17">
         <v>10002</v>
       </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="10">
-        <v>330001</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>52</v>
-      </c>
-      <c r="M10" t="s">
+    </row>
+    <row r="18" spans="2:17">
+      <c r="B18" s="11">
+        <v>10010</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18" s="11">
+        <v>410008</v>
+      </c>
+      <c r="G18" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="11" spans="2:13">
-      <c r="B11" s="10">
-        <v>10003</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="F11" s="10">
-        <v>500001</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="H18" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I18" t="s">
+        <v>74</v>
+      </c>
+      <c r="J18" t="s">
+        <v>69</v>
+      </c>
+      <c r="P18" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q18">
+        <v>10001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10">
+      <c r="B19" s="11">
+        <v>10011</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F19" s="11">
+        <v>300001</v>
+      </c>
+      <c r="G19" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H19" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I19" t="s">
+        <v>78</v>
+      </c>
+      <c r="J19" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10">
+      <c r="B20" s="11">
+        <v>10012</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="11">
+        <v>300001</v>
+      </c>
+      <c r="G20" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H20" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I20" t="s">
+        <v>80</v>
+      </c>
+      <c r="J20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10">
+      <c r="B21" s="11">
+        <v>10013</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="11">
+        <v>110001</v>
+      </c>
+      <c r="G21" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H21" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I21" t="s">
+        <v>82</v>
+      </c>
+      <c r="J21" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10">
+      <c r="B22" s="11">
+        <v>10014</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="F22" s="11">
+        <v>202001</v>
+      </c>
+      <c r="G22" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H22" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I22" t="s">
+        <v>84</v>
+      </c>
+      <c r="J22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10">
+      <c r="B23" s="11">
+        <v>10015</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="E23" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="11">
+        <v>204001</v>
+      </c>
+      <c r="G23" s="12" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="12" spans="2:16">
-      <c r="B12" s="10">
-        <v>10004</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="10">
-        <v>320002</v>
-      </c>
-      <c r="G12" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12">
-        <v>4</v>
-      </c>
-      <c r="I12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K12" s="3"/>
-      <c r="M12" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" t="s">
-        <v>58</v>
-      </c>
-      <c r="P12" s="10"/>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="10">
-        <v>10005</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10">
-        <v>410001</v>
-      </c>
-      <c r="G13" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="14" spans="2:16">
-      <c r="B14" s="10">
-        <v>10006</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F14" s="10">
-        <v>410002</v>
-      </c>
-      <c r="G14" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14" t="s">
-        <v>61</v>
-      </c>
-      <c r="J14" t="s">
-        <v>62</v>
-      </c>
-      <c r="O14" t="s">
+      <c r="H23" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I23" t="s">
+        <v>86</v>
+      </c>
+      <c r="J23" t="s">
         <v>63</v>
       </c>
-      <c r="P14" t="s">
+    </row>
+    <row r="24" spans="2:16">
+      <c r="B24" s="11">
+        <v>10016</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="F24" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G24" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="I24" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" t="s">
+        <v>63</v>
+      </c>
+      <c r="O24" s="15"/>
+      <c r="P24" s="18"/>
+    </row>
+    <row r="25" ht="15.5" spans="2:16">
+      <c r="B25" s="11">
+        <v>20004</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H25" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I25" t="s">
+        <v>91</v>
+      </c>
+      <c r="J25" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="17" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="10">
-        <v>10007</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10">
-        <v>410003</v>
-      </c>
-      <c r="G15" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>65</v>
-      </c>
-      <c r="J15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="10">
-        <v>10008</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10">
-        <v>410004</v>
-      </c>
-      <c r="G16" s="11" t="s">
-        <v>53</v>
-      </c>
-      <c r="H16">
-        <v>4</v>
-      </c>
-      <c r="I16" t="s">
-        <v>67</v>
-      </c>
-      <c r="J16" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="10">
-        <v>10009</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" s="10">
-        <v>410005</v>
-      </c>
-      <c r="G17" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
-      <c r="I17" t="s">
-        <v>70</v>
-      </c>
-      <c r="J17" t="s">
-        <v>62</v>
-      </c>
-      <c r="M17" t="s">
-        <v>71</v>
-      </c>
-      <c r="N17">
-        <v>10002</v>
-      </c>
-    </row>
-    <row r="18" spans="2:16">
-      <c r="B18" s="10">
-        <v>10010</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="F18" s="10">
-        <v>410008</v>
-      </c>
-      <c r="G18" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J18" t="s">
-        <v>68</v>
-      </c>
-      <c r="O18" t="s">
-        <v>74</v>
-      </c>
-      <c r="P18">
-        <v>10001</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10">
-      <c r="B19" s="10">
-        <v>10011</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="F19" s="10">
-        <v>300001</v>
-      </c>
-      <c r="G19" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H19">
-        <v>3</v>
-      </c>
-      <c r="I19" t="s">
-        <v>77</v>
-      </c>
-      <c r="J19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10">
-      <c r="B20" s="10">
-        <v>10012</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F20" s="10">
-        <v>300001</v>
-      </c>
-      <c r="G20" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H20">
-        <v>4</v>
-      </c>
-      <c r="I20" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="2:10">
-      <c r="B21" s="10">
-        <v>10013</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="F21" s="10">
-        <v>110001</v>
-      </c>
-      <c r="G21" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
-      </c>
-      <c r="I21" t="s">
-        <v>81</v>
-      </c>
-      <c r="J21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="2:10">
-      <c r="B22" s="10">
-        <v>10014</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="F22" s="10">
-        <v>202001</v>
-      </c>
-      <c r="G22" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22">
-        <v>2</v>
-      </c>
-      <c r="I22" t="s">
-        <v>83</v>
-      </c>
-      <c r="J22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:10">
-      <c r="B23" s="10">
-        <v>10015</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F23" s="10">
-        <v>204001</v>
-      </c>
-      <c r="G23" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="2:15">
-      <c r="B24" s="10">
-        <v>10016</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="10">
-        <v>201001</v>
-      </c>
-      <c r="G24" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="H24">
-        <v>4</v>
-      </c>
-      <c r="I24" t="s">
-        <v>87</v>
-      </c>
-      <c r="J24" t="s">
-        <v>62</v>
-      </c>
-      <c r="N24" s="13"/>
-      <c r="O24" s="14"/>
-    </row>
-    <row r="25" spans="6:6">
-      <c r="F25" s="10"/>
-    </row>
-    <row r="26" spans="6:6">
-      <c r="F26" s="10"/>
-    </row>
-    <row r="27" spans="6:6">
-      <c r="F27" s="10"/>
-    </row>
-    <row r="28" spans="6:6">
-      <c r="F28" s="10"/>
-    </row>
-    <row r="29" spans="6:6">
-      <c r="F29" s="10"/>
-    </row>
-    <row r="30" spans="6:6">
-      <c r="F30" s="10"/>
-    </row>
-    <row r="31" spans="6:6">
-      <c r="F31" s="10"/>
-    </row>
-    <row r="32" spans="6:6">
-      <c r="F32" s="10"/>
-    </row>
-    <row r="33" spans="6:6">
-      <c r="F33" s="10"/>
-    </row>
-    <row r="34" spans="6:6">
-      <c r="F34" s="10"/>
-    </row>
-    <row r="35" spans="6:6">
-      <c r="F35" s="10"/>
-    </row>
-    <row r="36" spans="6:6">
-      <c r="F36" s="10"/>
-    </row>
-    <row r="37" spans="6:6">
-      <c r="F37" s="10"/>
-    </row>
-    <row r="38" spans="6:6">
-      <c r="F38" s="10"/>
-    </row>
-    <row r="39" spans="6:6">
-      <c r="F39" s="10"/>
-    </row>
-    <row r="40" spans="6:6">
-      <c r="F40" s="10"/>
-    </row>
-    <row r="41" spans="6:6">
-      <c r="F41" s="10"/>
-    </row>
-    <row r="42" spans="6:6">
-      <c r="F42" s="10"/>
-    </row>
-    <row r="43" spans="6:6">
-      <c r="F43" s="10"/>
-    </row>
-    <row r="44" spans="6:6">
-      <c r="F44" s="10"/>
-    </row>
-    <row r="45" spans="6:6">
-      <c r="F45" s="10"/>
-    </row>
-    <row r="46" spans="6:6">
-      <c r="F46" s="10"/>
-    </row>
-    <row r="47" spans="6:6">
-      <c r="F47" s="10"/>
-    </row>
-    <row r="48" spans="6:6">
-      <c r="F48" s="10"/>
-    </row>
-    <row r="49" spans="6:6">
-      <c r="F49" s="10"/>
-    </row>
-    <row r="50" spans="6:6">
-      <c r="F50" s="10"/>
-    </row>
-    <row r="51" spans="6:6">
-      <c r="F51" s="10"/>
-    </row>
-    <row r="52" spans="6:6">
-      <c r="F52" s="10"/>
+      <c r="N25" t="s">
+        <v>92</v>
+      </c>
+      <c r="P25" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" ht="15.5" spans="2:16">
+      <c r="B26" s="10">
+        <v>20005</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="F26" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G26" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H26" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I26" t="s">
+        <v>91</v>
+      </c>
+      <c r="J26" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="N26" t="s">
+        <v>92</v>
+      </c>
+      <c r="P26" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" ht="15.5" spans="2:16">
+      <c r="B27" s="11">
+        <v>20006</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F27" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I27" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" t="s">
+        <v>67</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="N27" t="s">
+        <v>92</v>
+      </c>
+      <c r="P27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" ht="15.5" spans="2:16">
+      <c r="B28" s="10">
+        <v>20007</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F28" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H28" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I28" t="s">
+        <v>91</v>
+      </c>
+      <c r="J28" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="17" t="s">
+        <v>99</v>
+      </c>
+      <c r="N28" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="29" ht="15.5" spans="2:16">
+      <c r="B29" s="11">
+        <v>20008</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G29" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H29" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" t="s">
+        <v>91</v>
+      </c>
+      <c r="J29" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="N29" t="s">
+        <v>92</v>
+      </c>
+      <c r="P29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" ht="15.5" spans="2:16">
+      <c r="B30" s="10">
+        <v>20009</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G30" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H30" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I30" t="s">
+        <v>91</v>
+      </c>
+      <c r="J30" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="N30" t="s">
+        <v>92</v>
+      </c>
+      <c r="P30" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="31" ht="15.5" spans="2:16">
+      <c r="B31" s="11">
+        <v>20010</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G31" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H31" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I31" t="s">
+        <v>91</v>
+      </c>
+      <c r="J31" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="17" t="s">
+        <v>105</v>
+      </c>
+      <c r="N31" t="s">
+        <v>92</v>
+      </c>
+      <c r="P31" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="32" ht="15.5" spans="2:16">
+      <c r="B32" s="10">
+        <v>20011</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G32" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H32" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I32" t="s">
+        <v>91</v>
+      </c>
+      <c r="J32" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32">
+        <v>0</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="N32" t="s">
+        <v>92</v>
+      </c>
+      <c r="P32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="33" ht="15.5" spans="2:16">
+      <c r="B33" s="11">
+        <v>20012</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F33" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G33" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I33" t="s">
+        <v>91</v>
+      </c>
+      <c r="J33" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="N33" t="s">
+        <v>92</v>
+      </c>
+      <c r="P33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" ht="15.5" spans="2:16">
+      <c r="B34" s="10">
+        <v>20013</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="F34" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I34" t="s">
+        <v>91</v>
+      </c>
+      <c r="J34" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="17" t="s">
+        <v>111</v>
+      </c>
+      <c r="N34" t="s">
+        <v>92</v>
+      </c>
+      <c r="P34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" ht="15.5" spans="2:16">
+      <c r="B35" s="11">
+        <v>20014</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="F35" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I35" t="s">
+        <v>91</v>
+      </c>
+      <c r="J35" t="s">
+        <v>67</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="17" t="s">
+        <v>113</v>
+      </c>
+      <c r="N35" t="s">
+        <v>92</v>
+      </c>
+      <c r="P35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" ht="15.5" spans="2:16">
+      <c r="B36" s="10">
+        <v>20015</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F36" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G36" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H36" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I36" t="s">
+        <v>91</v>
+      </c>
+      <c r="J36" t="s">
+        <v>67</v>
+      </c>
+      <c r="K36">
+        <v>0</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="N36" t="s">
+        <v>92</v>
+      </c>
+      <c r="P36" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="37" ht="15.5" spans="2:16">
+      <c r="B37" s="11">
+        <v>20016</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="F37" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G37" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H37" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I37" t="s">
+        <v>91</v>
+      </c>
+      <c r="J37" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="N37" t="s">
+        <v>92</v>
+      </c>
+      <c r="P37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" ht="15.5" spans="2:16">
+      <c r="B38" s="10">
+        <v>20017</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G38" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H38" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I38" t="s">
+        <v>91</v>
+      </c>
+      <c r="J38" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38">
+        <v>0</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="N38" t="s">
+        <v>92</v>
+      </c>
+      <c r="P38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" ht="15.5" spans="2:16">
+      <c r="B39" s="11">
+        <v>20018</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F39" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G39" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H39" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I39" t="s">
+        <v>91</v>
+      </c>
+      <c r="J39" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39">
+        <v>0</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" s="17" t="s">
+        <v>121</v>
+      </c>
+      <c r="N39" t="s">
+        <v>92</v>
+      </c>
+      <c r="P39" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" ht="15.5" spans="2:16">
+      <c r="B40" s="10">
+        <v>20019</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G40" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I40" t="s">
+        <v>91</v>
+      </c>
+      <c r="J40" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40">
+        <v>0</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" s="17" t="s">
+        <v>123</v>
+      </c>
+      <c r="N40" t="s">
+        <v>92</v>
+      </c>
+      <c r="P40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" ht="15.5" spans="2:16">
+      <c r="B41" s="11">
+        <v>20020</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G41" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H41" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I41" t="s">
+        <v>91</v>
+      </c>
+      <c r="J41" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41">
+        <v>0</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" s="17" t="s">
+        <v>125</v>
+      </c>
+      <c r="N41" t="s">
+        <v>92</v>
+      </c>
+      <c r="P41" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="42" ht="15.5" spans="2:16">
+      <c r="B42" s="10">
+        <v>20021</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F42" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G42" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H42" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I42" t="s">
+        <v>91</v>
+      </c>
+      <c r="J42" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" s="17" t="s">
+        <v>127</v>
+      </c>
+      <c r="N42" t="s">
+        <v>92</v>
+      </c>
+      <c r="P42" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="43" ht="15.5" spans="2:16">
+      <c r="B43" s="11">
+        <v>20022</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G43" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H43" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I43" t="s">
+        <v>91</v>
+      </c>
+      <c r="J43" t="s">
+        <v>67</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="N43" t="s">
+        <v>92</v>
+      </c>
+      <c r="P43" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" ht="15.5" spans="2:16">
+      <c r="B44" s="10">
+        <v>20023</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H44" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" t="s">
+        <v>91</v>
+      </c>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+      <c r="K44">
+        <v>0</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" s="17" t="s">
+        <v>131</v>
+      </c>
+      <c r="N44" t="s">
+        <v>92</v>
+      </c>
+      <c r="P44" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" ht="15.5" spans="2:16">
+      <c r="B45" s="11">
+        <v>20024</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="F45" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I45" t="s">
+        <v>91</v>
+      </c>
+      <c r="J45" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" s="17" t="s">
+        <v>133</v>
+      </c>
+      <c r="N45" t="s">
+        <v>92</v>
+      </c>
+      <c r="P45" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" ht="15.5" spans="2:16">
+      <c r="B46" s="10">
+        <v>20025</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G46" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H46" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I46" t="s">
+        <v>91</v>
+      </c>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="N46" t="s">
+        <v>92</v>
+      </c>
+      <c r="P46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" ht="15.5" spans="2:16">
+      <c r="B47" s="11">
+        <v>20026</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F47" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G47" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H47" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I47" t="s">
+        <v>91</v>
+      </c>
+      <c r="J47" t="s">
+        <v>67</v>
+      </c>
+      <c r="K47">
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="N47" t="s">
+        <v>92</v>
+      </c>
+      <c r="P47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" ht="15.5" spans="2:16">
+      <c r="B48" s="10">
+        <v>20027</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="F48" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G48" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H48" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I48" t="s">
+        <v>91</v>
+      </c>
+      <c r="J48" t="s">
+        <v>67</v>
+      </c>
+      <c r="K48">
+        <v>0</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="N48" t="s">
+        <v>92</v>
+      </c>
+      <c r="P48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" ht="15.5" spans="2:16">
+      <c r="B49" s="11">
+        <v>20028</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="F49" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G49" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H49" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I49" t="s">
+        <v>91</v>
+      </c>
+      <c r="J49" t="s">
+        <v>67</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="N49" t="s">
+        <v>92</v>
+      </c>
+      <c r="P49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" ht="15.5" spans="2:16">
+      <c r="B50" s="10">
+        <v>20029</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="F50" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G50" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H50" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I50" t="s">
+        <v>91</v>
+      </c>
+      <c r="J50" t="s">
+        <v>67</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" s="17" t="s">
+        <v>143</v>
+      </c>
+      <c r="N50" t="s">
+        <v>92</v>
+      </c>
+      <c r="P50" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" ht="15.5" spans="2:16">
+      <c r="B51" s="11">
+        <v>20030</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H51" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I51" t="s">
+        <v>91</v>
+      </c>
+      <c r="J51" t="s">
+        <v>67</v>
+      </c>
+      <c r="K51">
+        <v>0</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="N51" t="s">
+        <v>92</v>
+      </c>
+      <c r="P51" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" ht="15.5" spans="2:16">
+      <c r="B52" s="10">
+        <v>20031</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="F52" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H52" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I52" t="s">
+        <v>91</v>
+      </c>
+      <c r="J52" t="s">
+        <v>67</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="N52" t="s">
+        <v>92</v>
+      </c>
+      <c r="P52" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" ht="15.5" spans="2:16">
+      <c r="B53" s="11">
+        <v>20032</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="F53" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G53" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I53" t="s">
+        <v>91</v>
+      </c>
+      <c r="J53" t="s">
+        <v>67</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="N53" t="s">
+        <v>92</v>
+      </c>
+      <c r="P53" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" ht="15.5" spans="2:16">
+      <c r="B54" s="10">
+        <v>20033</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="F54" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G54" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H54" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I54" t="s">
+        <v>91</v>
+      </c>
+      <c r="J54" t="s">
+        <v>67</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="N54" t="s">
+        <v>92</v>
+      </c>
+      <c r="P54" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="55" ht="15.5" spans="2:16">
+      <c r="B55" s="11">
+        <v>20034</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F55" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G55" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H55" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55" t="s">
+        <v>91</v>
+      </c>
+      <c r="J55" t="s">
+        <v>67</v>
+      </c>
+      <c r="K55">
+        <v>0</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" s="17" t="s">
+        <v>153</v>
+      </c>
+      <c r="N55" t="s">
+        <v>92</v>
+      </c>
+      <c r="P55" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="56" ht="15.5" spans="2:16">
+      <c r="B56" s="10">
+        <v>20035</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="F56" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H56" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I56" t="s">
+        <v>91</v>
+      </c>
+      <c r="J56" t="s">
+        <v>67</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" s="17" t="s">
+        <v>155</v>
+      </c>
+      <c r="N56" t="s">
+        <v>92</v>
+      </c>
+      <c r="P56" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="57" ht="15.5" spans="2:16">
+      <c r="B57" s="11">
+        <v>20036</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="F57" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G57" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H57" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I57" t="s">
+        <v>91</v>
+      </c>
+      <c r="J57" t="s">
+        <v>67</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" s="17" t="s">
+        <v>157</v>
+      </c>
+      <c r="N57" t="s">
+        <v>92</v>
+      </c>
+      <c r="P57" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="58" ht="15.5" spans="2:16">
+      <c r="B58" s="10">
+        <v>20037</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>158</v>
+      </c>
+      <c r="F58" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G58" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H58" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I58" t="s">
+        <v>91</v>
+      </c>
+      <c r="J58" t="s">
+        <v>67</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="N58" t="s">
+        <v>92</v>
+      </c>
+      <c r="P58" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="59" ht="15.5" spans="2:16">
+      <c r="B59" s="11">
+        <v>20038</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>160</v>
+      </c>
+      <c r="F59" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G59" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I59" t="s">
+        <v>91</v>
+      </c>
+      <c r="J59" t="s">
+        <v>67</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" s="17" t="s">
+        <v>161</v>
+      </c>
+      <c r="N59" t="s">
+        <v>92</v>
+      </c>
+      <c r="P59" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" ht="15.5" spans="2:16">
+      <c r="B60" s="10">
+        <v>20039</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="F60" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G60" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I60" t="s">
+        <v>91</v>
+      </c>
+      <c r="J60" t="s">
+        <v>67</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" s="17" t="s">
+        <v>163</v>
+      </c>
+      <c r="N60" t="s">
+        <v>92</v>
+      </c>
+      <c r="P60" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="61" ht="15.5" spans="2:16">
+      <c r="B61" s="11">
+        <v>20040</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>164</v>
+      </c>
+      <c r="F61" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G61" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H61" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I61" t="s">
+        <v>91</v>
+      </c>
+      <c r="J61" t="s">
+        <v>67</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="N61" t="s">
+        <v>92</v>
+      </c>
+      <c r="P61" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="62" ht="15.5" spans="2:16">
+      <c r="B62" s="10">
+        <v>20041</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="F62" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G62" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H62" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I62" t="s">
+        <v>91</v>
+      </c>
+      <c r="J62" t="s">
+        <v>67</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" s="17" t="s">
+        <v>167</v>
+      </c>
+      <c r="N62" t="s">
+        <v>92</v>
+      </c>
+      <c r="P62" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="63" ht="15.5" spans="2:16">
+      <c r="B63" s="11">
+        <v>20042</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F63" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G63" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H63" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I63" t="s">
+        <v>91</v>
+      </c>
+      <c r="J63" t="s">
+        <v>67</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" s="17" t="s">
+        <v>169</v>
+      </c>
+      <c r="N63" t="s">
+        <v>92</v>
+      </c>
+      <c r="P63" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="64" ht="15.5" spans="2:16">
+      <c r="B64" s="10">
+        <v>20043</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G64" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H64" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I64" t="s">
+        <v>91</v>
+      </c>
+      <c r="J64" t="s">
+        <v>67</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" s="17" t="s">
+        <v>171</v>
+      </c>
+      <c r="N64" t="s">
+        <v>92</v>
+      </c>
+      <c r="P64" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="65" ht="15.5" spans="2:16">
+      <c r="B65" s="11">
+        <v>20044</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="F65" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G65" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H65" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I65" t="s">
+        <v>91</v>
+      </c>
+      <c r="J65" t="s">
+        <v>67</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="N65" t="s">
+        <v>92</v>
+      </c>
+      <c r="P65" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="66" ht="15.5" spans="2:16">
+      <c r="B66" s="10">
+        <v>20045</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="F66" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G66" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H66" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I66" t="s">
+        <v>91</v>
+      </c>
+      <c r="J66" t="s">
+        <v>67</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="N66" t="s">
+        <v>92</v>
+      </c>
+      <c r="P66" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="67" ht="15.5" spans="2:16">
+      <c r="B67" s="11">
+        <v>20046</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="F67" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G67" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H67" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I67" t="s">
+        <v>91</v>
+      </c>
+      <c r="J67" t="s">
+        <v>67</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" s="17" t="s">
+        <v>177</v>
+      </c>
+      <c r="N67" t="s">
+        <v>92</v>
+      </c>
+      <c r="P67" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="68" ht="15.5" spans="2:16">
+      <c r="B68" s="10">
+        <v>20047</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="F68" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G68" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H68" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I68" t="s">
+        <v>91</v>
+      </c>
+      <c r="J68" t="s">
+        <v>67</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="N68" t="s">
+        <v>92</v>
+      </c>
+      <c r="P68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" ht="15.5" spans="2:16">
+      <c r="B69" s="11">
+        <v>20048</v>
+      </c>
+      <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F69" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G69" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H69" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I69" t="s">
+        <v>91</v>
+      </c>
+      <c r="J69" t="s">
+        <v>67</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="N69" t="s">
+        <v>92</v>
+      </c>
+      <c r="P69" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="70" ht="15.5" spans="2:16">
+      <c r="B70" s="10">
+        <v>20049</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F70" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G70" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H70" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I70" t="s">
+        <v>91</v>
+      </c>
+      <c r="J70" t="s">
+        <v>67</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" s="17" t="s">
+        <v>183</v>
+      </c>
+      <c r="N70" t="s">
+        <v>92</v>
+      </c>
+      <c r="P70" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="71" ht="15.5" spans="2:16">
+      <c r="B71" s="11">
+        <v>20050</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="F71" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G71" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H71" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I71" t="s">
+        <v>91</v>
+      </c>
+      <c r="J71" t="s">
+        <v>67</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" s="17" t="s">
+        <v>185</v>
+      </c>
+      <c r="N71" t="s">
+        <v>92</v>
+      </c>
+      <c r="P71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" ht="15.5" spans="2:16">
+      <c r="B72" s="10">
+        <v>20051</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="F72" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G72" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H72" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I72" t="s">
+        <v>91</v>
+      </c>
+      <c r="J72" t="s">
+        <v>67</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="N72" t="s">
+        <v>92</v>
+      </c>
+      <c r="P72" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="73" ht="15.5" spans="2:16">
+      <c r="B73" s="11">
+        <v>20052</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="F73" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G73" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H73" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I73" t="s">
+        <v>91</v>
+      </c>
+      <c r="J73" t="s">
+        <v>67</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" s="17" t="s">
+        <v>189</v>
+      </c>
+      <c r="N73" t="s">
+        <v>92</v>
+      </c>
+      <c r="P73" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="74" ht="15.5" spans="2:16">
+      <c r="B74" s="10">
+        <v>20053</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="F74" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I74" t="s">
+        <v>91</v>
+      </c>
+      <c r="J74" t="s">
+        <v>67</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="N74" t="s">
+        <v>92</v>
+      </c>
+      <c r="P74" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="75" ht="15.5" spans="2:16">
+      <c r="B75" s="11">
+        <v>20054</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>192</v>
+      </c>
+      <c r="F75" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H75" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I75" t="s">
+        <v>91</v>
+      </c>
+      <c r="J75" t="s">
+        <v>67</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" s="17" t="s">
+        <v>193</v>
+      </c>
+      <c r="N75" t="s">
+        <v>92</v>
+      </c>
+      <c r="P75" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="76" ht="15.5" spans="2:16">
+      <c r="B76" s="10">
+        <v>20055</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>194</v>
+      </c>
+      <c r="F76" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G76" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H76" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I76" t="s">
+        <v>91</v>
+      </c>
+      <c r="J76" t="s">
+        <v>67</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" s="17" t="s">
+        <v>195</v>
+      </c>
+      <c r="N76" t="s">
+        <v>92</v>
+      </c>
+      <c r="P76" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="77" ht="15.5" spans="2:16">
+      <c r="B77" s="11">
+        <v>20056</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F77" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G77" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H77" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I77" t="s">
+        <v>91</v>
+      </c>
+      <c r="J77" t="s">
+        <v>67</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="N77" t="s">
+        <v>92</v>
+      </c>
+      <c r="P77" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="78" ht="15.5" spans="2:16">
+      <c r="B78" s="10">
+        <v>20057</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="F78" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G78" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H78" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I78" t="s">
+        <v>91</v>
+      </c>
+      <c r="J78" t="s">
+        <v>67</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78" s="17" t="s">
+        <v>199</v>
+      </c>
+      <c r="N78" t="s">
+        <v>92</v>
+      </c>
+      <c r="P78" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="79" ht="15.5" spans="2:16">
+      <c r="B79" s="11">
+        <v>20058</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="F79" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G79" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H79" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I79" t="s">
+        <v>91</v>
+      </c>
+      <c r="J79" t="s">
+        <v>67</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="N79" t="s">
+        <v>92</v>
+      </c>
+      <c r="P79" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" ht="15.5" spans="2:16">
+      <c r="B80" s="10">
+        <v>20059</v>
+      </c>
+      <c r="C80">
+        <v>1</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>202</v>
+      </c>
+      <c r="F80" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G80" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H80" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I80" t="s">
+        <v>91</v>
+      </c>
+      <c r="J80" t="s">
+        <v>67</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80" s="17" t="s">
+        <v>203</v>
+      </c>
+      <c r="N80" t="s">
+        <v>92</v>
+      </c>
+      <c r="P80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" ht="15.5" spans="2:16">
+      <c r="B81" s="11">
+        <v>20060</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="F81" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G81" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H81" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I81" t="s">
+        <v>91</v>
+      </c>
+      <c r="J81" t="s">
+        <v>67</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81" s="17" t="s">
+        <v>205</v>
+      </c>
+      <c r="N81" t="s">
+        <v>92</v>
+      </c>
+      <c r="P81" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="82" ht="15.5" spans="2:16">
+      <c r="B82" s="10">
+        <v>20061</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F82" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G82" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H82" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I82" t="s">
+        <v>91</v>
+      </c>
+      <c r="J82" t="s">
+        <v>67</v>
+      </c>
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82" s="17" t="s">
+        <v>207</v>
+      </c>
+      <c r="N82" t="s">
+        <v>92</v>
+      </c>
+      <c r="P82" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="83" ht="15.5" spans="2:16">
+      <c r="B83" s="11">
+        <v>20062</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="F83" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G83" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H83" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I83" t="s">
+        <v>91</v>
+      </c>
+      <c r="J83" t="s">
+        <v>67</v>
+      </c>
+      <c r="K83">
+        <v>0</v>
+      </c>
+      <c r="L83">
+        <v>0</v>
+      </c>
+      <c r="M83" s="17" t="s">
+        <v>209</v>
+      </c>
+      <c r="N83" t="s">
+        <v>92</v>
+      </c>
+      <c r="P83" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="84" ht="15.5" spans="2:16">
+      <c r="B84" s="10">
+        <v>20063</v>
+      </c>
+      <c r="C84">
+        <v>1</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>210</v>
+      </c>
+      <c r="F84" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G84" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H84" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I84" t="s">
+        <v>91</v>
+      </c>
+      <c r="J84" t="s">
+        <v>67</v>
+      </c>
+      <c r="K84">
+        <v>0</v>
+      </c>
+      <c r="L84">
+        <v>0</v>
+      </c>
+      <c r="M84" s="17" t="s">
+        <v>211</v>
+      </c>
+      <c r="N84" t="s">
+        <v>92</v>
+      </c>
+      <c r="P84" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="85" ht="15.5" spans="2:16">
+      <c r="B85" s="11">
+        <v>20064</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F85" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G85" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I85" t="s">
+        <v>91</v>
+      </c>
+      <c r="J85" t="s">
+        <v>67</v>
+      </c>
+      <c r="K85">
+        <v>0</v>
+      </c>
+      <c r="L85">
+        <v>0</v>
+      </c>
+      <c r="M85" s="17" t="s">
+        <v>213</v>
+      </c>
+      <c r="N85" t="s">
+        <v>92</v>
+      </c>
+      <c r="P85" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="86" ht="15.5" spans="2:16">
+      <c r="B86" s="10">
+        <v>20065</v>
+      </c>
+      <c r="C86">
+        <v>1</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>214</v>
+      </c>
+      <c r="F86" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G86" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H86" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I86" t="s">
+        <v>91</v>
+      </c>
+      <c r="J86" t="s">
+        <v>67</v>
+      </c>
+      <c r="K86">
+        <v>0</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86" s="17" t="s">
+        <v>215</v>
+      </c>
+      <c r="N86" t="s">
+        <v>92</v>
+      </c>
+      <c r="P86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" ht="15.5" spans="2:16">
+      <c r="B87" s="11">
+        <v>20066</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>216</v>
+      </c>
+      <c r="F87" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G87" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H87" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I87" t="s">
+        <v>91</v>
+      </c>
+      <c r="J87" t="s">
+        <v>67</v>
+      </c>
+      <c r="K87">
+        <v>0</v>
+      </c>
+      <c r="L87">
+        <v>0</v>
+      </c>
+      <c r="M87" s="17" t="s">
+        <v>217</v>
+      </c>
+      <c r="N87" t="s">
+        <v>92</v>
+      </c>
+      <c r="P87" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="88" ht="15.5" spans="2:16">
+      <c r="B88" s="10">
+        <v>20067</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="F88" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G88" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H88" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I88" t="s">
+        <v>91</v>
+      </c>
+      <c r="J88" t="s">
+        <v>67</v>
+      </c>
+      <c r="K88">
+        <v>0</v>
+      </c>
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="N88" t="s">
+        <v>92</v>
+      </c>
+      <c r="P88" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="89" ht="15.5" spans="2:16">
+      <c r="B89" s="11">
+        <v>20068</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="F89" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G89" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H89" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I89" t="s">
+        <v>91</v>
+      </c>
+      <c r="J89" t="s">
+        <v>67</v>
+      </c>
+      <c r="K89">
+        <v>0</v>
+      </c>
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89" s="17" t="s">
+        <v>221</v>
+      </c>
+      <c r="N89" t="s">
+        <v>92</v>
+      </c>
+      <c r="P89" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="90" ht="15.5" spans="2:16">
+      <c r="B90" s="10">
+        <v>20069</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F90" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G90" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H90" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I90" t="s">
+        <v>91</v>
+      </c>
+      <c r="J90" t="s">
+        <v>67</v>
+      </c>
+      <c r="K90">
+        <v>0</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90" s="17" t="s">
+        <v>223</v>
+      </c>
+      <c r="N90" t="s">
+        <v>92</v>
+      </c>
+      <c r="P90" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="91" ht="15.5" spans="2:16">
+      <c r="B91" s="11">
+        <v>20070</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>224</v>
+      </c>
+      <c r="F91" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G91" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H91" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I91" t="s">
+        <v>91</v>
+      </c>
+      <c r="J91" t="s">
+        <v>67</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91" s="17" t="s">
+        <v>225</v>
+      </c>
+      <c r="N91" t="s">
+        <v>92</v>
+      </c>
+      <c r="P91" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="92" ht="15.5" spans="2:16">
+      <c r="B92" s="10">
+        <v>20071</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>226</v>
+      </c>
+      <c r="F92" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G92" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H92" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I92" t="s">
+        <v>91</v>
+      </c>
+      <c r="J92" t="s">
+        <v>67</v>
+      </c>
+      <c r="K92">
+        <v>0</v>
+      </c>
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92" s="17" t="s">
+        <v>227</v>
+      </c>
+      <c r="N92" t="s">
+        <v>92</v>
+      </c>
+      <c r="P92" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="93" ht="15.5" spans="2:16">
+      <c r="B93" s="11">
+        <v>20072</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F93" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G93" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H93" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I93" t="s">
+        <v>91</v>
+      </c>
+      <c r="J93" t="s">
+        <v>67</v>
+      </c>
+      <c r="K93">
+        <v>0</v>
+      </c>
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93" s="17" t="s">
+        <v>229</v>
+      </c>
+      <c r="N93" t="s">
+        <v>92</v>
+      </c>
+      <c r="P93" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="94" ht="15.5" spans="2:16">
+      <c r="B94" s="10">
+        <v>20073</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>230</v>
+      </c>
+      <c r="F94" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G94" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H94" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I94" t="s">
+        <v>91</v>
+      </c>
+      <c r="J94" t="s">
+        <v>67</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94" s="17" t="s">
+        <v>231</v>
+      </c>
+      <c r="N94" t="s">
+        <v>92</v>
+      </c>
+      <c r="P94" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" ht="15.5" spans="2:16">
+      <c r="B95" s="11">
+        <v>20074</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="F95" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G95" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H95" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I95" t="s">
+        <v>91</v>
+      </c>
+      <c r="J95" t="s">
+        <v>67</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="N95" t="s">
+        <v>92</v>
+      </c>
+      <c r="P95" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" ht="15.5" spans="2:16">
+      <c r="B96" s="10">
+        <v>20075</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F96" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G96" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H96" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I96" t="s">
+        <v>91</v>
+      </c>
+      <c r="J96" t="s">
+        <v>67</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="N96" t="s">
+        <v>92</v>
+      </c>
+      <c r="P96" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="97" ht="15.5" spans="2:16">
+      <c r="B97" s="11">
+        <v>20076</v>
+      </c>
+      <c r="C97">
+        <v>1</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="F97" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G97" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H97" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I97" t="s">
+        <v>91</v>
+      </c>
+      <c r="J97" t="s">
+        <v>67</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="N97" t="s">
+        <v>92</v>
+      </c>
+      <c r="P97" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" ht="15.5" spans="2:16">
+      <c r="B98" s="10">
+        <v>20077</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="F98" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G98" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H98" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I98" t="s">
+        <v>91</v>
+      </c>
+      <c r="J98" t="s">
+        <v>67</v>
+      </c>
+      <c r="K98">
+        <v>0</v>
+      </c>
+      <c r="L98">
+        <v>0</v>
+      </c>
+      <c r="M98" s="17" t="s">
+        <v>239</v>
+      </c>
+      <c r="N98" t="s">
+        <v>92</v>
+      </c>
+      <c r="P98" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="99" ht="15.5" spans="2:16">
+      <c r="B99" s="11">
+        <v>20078</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F99" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G99" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H99" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I99" t="s">
+        <v>91</v>
+      </c>
+      <c r="J99" t="s">
+        <v>67</v>
+      </c>
+      <c r="K99">
+        <v>0</v>
+      </c>
+      <c r="L99">
+        <v>0</v>
+      </c>
+      <c r="M99" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="N99" t="s">
+        <v>92</v>
+      </c>
+      <c r="P99" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="100" ht="15.5" spans="2:16">
+      <c r="B100" s="10">
+        <v>20079</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>242</v>
+      </c>
+      <c r="F100" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G100" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H100" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I100" t="s">
+        <v>91</v>
+      </c>
+      <c r="J100" t="s">
+        <v>67</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+      <c r="L100">
+        <v>0</v>
+      </c>
+      <c r="M100" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="N100" t="s">
+        <v>92</v>
+      </c>
+      <c r="P100" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="101" ht="15.5" spans="2:16">
+      <c r="B101" s="11">
+        <v>20080</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="F101" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G101" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H101" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I101" t="s">
+        <v>91</v>
+      </c>
+      <c r="J101" t="s">
+        <v>67</v>
+      </c>
+      <c r="K101">
+        <v>0</v>
+      </c>
+      <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="N101" t="s">
+        <v>92</v>
+      </c>
+      <c r="P101" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="102" ht="15.5" spans="2:16">
+      <c r="B102" s="10">
+        <v>20081</v>
+      </c>
+      <c r="C102">
+        <v>1</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F102" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G102" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H102" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I102" t="s">
+        <v>91</v>
+      </c>
+      <c r="J102" t="s">
+        <v>67</v>
+      </c>
+      <c r="K102">
+        <v>0</v>
+      </c>
+      <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="N102" t="s">
+        <v>92</v>
+      </c>
+      <c r="P102" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="103" ht="15.5" spans="2:16">
+      <c r="B103" s="11">
+        <v>20082</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>248</v>
+      </c>
+      <c r="F103" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G103" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I103" t="s">
+        <v>91</v>
+      </c>
+      <c r="J103" t="s">
+        <v>67</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+      <c r="L103">
+        <v>0</v>
+      </c>
+      <c r="M103" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="N103" t="s">
+        <v>92</v>
+      </c>
+      <c r="P103" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="104" ht="15.5" spans="2:16">
+      <c r="B104" s="10">
+        <v>20083</v>
+      </c>
+      <c r="C104">
+        <v>1</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F104" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G104" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H104" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I104" t="s">
+        <v>91</v>
+      </c>
+      <c r="J104" t="s">
+        <v>67</v>
+      </c>
+      <c r="K104">
+        <v>0</v>
+      </c>
+      <c r="L104">
+        <v>0</v>
+      </c>
+      <c r="M104" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="N104" t="s">
+        <v>92</v>
+      </c>
+      <c r="P104" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="105" ht="15.5" spans="2:16">
+      <c r="B105" s="11">
+        <v>20084</v>
+      </c>
+      <c r="C105">
+        <v>1</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F105" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G105" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H105" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I105" t="s">
+        <v>91</v>
+      </c>
+      <c r="J105" t="s">
+        <v>67</v>
+      </c>
+      <c r="K105">
+        <v>0</v>
+      </c>
+      <c r="L105">
+        <v>0</v>
+      </c>
+      <c r="M105" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="N105" t="s">
+        <v>92</v>
+      </c>
+      <c r="P105" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="106" ht="15.5" spans="2:16">
+      <c r="B106" s="10">
+        <v>20085</v>
+      </c>
+      <c r="C106">
+        <v>1</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="F106" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G106" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H106" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I106" t="s">
+        <v>91</v>
+      </c>
+      <c r="J106" t="s">
+        <v>67</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="N106" t="s">
+        <v>92</v>
+      </c>
+      <c r="P106" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="107" ht="15.5" spans="2:16">
+      <c r="B107" s="11">
+        <v>20086</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>256</v>
+      </c>
+      <c r="F107" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G107" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H107" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I107" t="s">
+        <v>91</v>
+      </c>
+      <c r="J107" t="s">
+        <v>67</v>
+      </c>
+      <c r="K107">
+        <v>0</v>
+      </c>
+      <c r="L107">
+        <v>0</v>
+      </c>
+      <c r="M107" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="N107" t="s">
+        <v>92</v>
+      </c>
+      <c r="P107" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="108" ht="15.5" spans="2:16">
+      <c r="B108" s="10">
+        <v>20087</v>
+      </c>
+      <c r="C108">
+        <v>1</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="F108" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G108" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H108" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I108" t="s">
+        <v>91</v>
+      </c>
+      <c r="J108" t="s">
+        <v>67</v>
+      </c>
+      <c r="K108">
+        <v>0</v>
+      </c>
+      <c r="L108">
+        <v>0</v>
+      </c>
+      <c r="M108" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="N108" t="s">
+        <v>92</v>
+      </c>
+      <c r="P108" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="109" ht="15.5" spans="2:16">
+      <c r="B109" s="11">
+        <v>20088</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="F109" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G109" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H109" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I109" t="s">
+        <v>91</v>
+      </c>
+      <c r="J109" t="s">
+        <v>67</v>
+      </c>
+      <c r="K109">
+        <v>0</v>
+      </c>
+      <c r="L109">
+        <v>0</v>
+      </c>
+      <c r="M109" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="N109" t="s">
+        <v>92</v>
+      </c>
+      <c r="P109" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="110" ht="15.5" spans="2:16">
+      <c r="B110" s="10">
+        <v>20089</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F110" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G110" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H110" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I110" t="s">
+        <v>91</v>
+      </c>
+      <c r="J110" t="s">
+        <v>67</v>
+      </c>
+      <c r="K110">
+        <v>0</v>
+      </c>
+      <c r="L110">
+        <v>0</v>
+      </c>
+      <c r="M110" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="N110" t="s">
+        <v>92</v>
+      </c>
+      <c r="P110" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="111" ht="15.5" spans="2:16">
+      <c r="B111" s="11">
+        <v>20090</v>
+      </c>
+      <c r="C111">
+        <v>1</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="F111" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G111" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I111" t="s">
+        <v>91</v>
+      </c>
+      <c r="J111" t="s">
+        <v>67</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="N111" t="s">
+        <v>92</v>
+      </c>
+      <c r="P111" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="112" ht="15.5" spans="2:16">
+      <c r="B112" s="10">
+        <v>20091</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="F112" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G112" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H112" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I112" t="s">
+        <v>91</v>
+      </c>
+      <c r="J112" t="s">
+        <v>67</v>
+      </c>
+      <c r="K112">
+        <v>0</v>
+      </c>
+      <c r="L112">
+        <v>0</v>
+      </c>
+      <c r="M112" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="N112" t="s">
+        <v>92</v>
+      </c>
+      <c r="P112" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="113" ht="15.5" spans="2:16">
+      <c r="B113" s="11">
+        <v>20092</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F113" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G113" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H113" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I113" t="s">
+        <v>91</v>
+      </c>
+      <c r="J113" t="s">
+        <v>67</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113" s="17" t="s">
+        <v>269</v>
+      </c>
+      <c r="N113" t="s">
+        <v>92</v>
+      </c>
+      <c r="P113" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="114" ht="15.5" spans="2:16">
+      <c r="B114" s="10">
+        <v>20093</v>
+      </c>
+      <c r="C114">
+        <v>1</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F114" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G114" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H114" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I114" t="s">
+        <v>91</v>
+      </c>
+      <c r="J114" t="s">
+        <v>67</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>0</v>
+      </c>
+      <c r="M114" s="17" t="s">
+        <v>271</v>
+      </c>
+      <c r="N114" t="s">
+        <v>92</v>
+      </c>
+      <c r="P114" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="115" ht="15.5" spans="2:16">
+      <c r="B115" s="11">
+        <v>20094</v>
+      </c>
+      <c r="C115">
+        <v>1</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="F115" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G115" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H115" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I115" t="s">
+        <v>91</v>
+      </c>
+      <c r="J115" t="s">
+        <v>67</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>0</v>
+      </c>
+      <c r="M115" s="17" t="s">
+        <v>273</v>
+      </c>
+      <c r="N115" t="s">
+        <v>92</v>
+      </c>
+      <c r="P115" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="116" ht="15.5" spans="2:16">
+      <c r="B116" s="10">
+        <v>20095</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F116" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G116" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H116" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I116" t="s">
+        <v>91</v>
+      </c>
+      <c r="J116" t="s">
+        <v>67</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116" s="17" t="s">
+        <v>275</v>
+      </c>
+      <c r="N116" t="s">
+        <v>92</v>
+      </c>
+      <c r="P116" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="117" ht="15.5" spans="2:16">
+      <c r="B117" s="11">
+        <v>20096</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>276</v>
+      </c>
+      <c r="F117" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G117" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H117" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I117" t="s">
+        <v>91</v>
+      </c>
+      <c r="J117" t="s">
+        <v>67</v>
+      </c>
+      <c r="K117">
+        <v>0</v>
+      </c>
+      <c r="L117">
+        <v>0</v>
+      </c>
+      <c r="M117" s="17" t="s">
+        <v>277</v>
+      </c>
+      <c r="N117" t="s">
+        <v>92</v>
+      </c>
+      <c r="P117" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="118" ht="15.5" spans="2:16">
+      <c r="B118" s="10">
+        <v>20097</v>
+      </c>
+      <c r="C118">
+        <v>1</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="F118" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G118" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H118" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I118" t="s">
+        <v>91</v>
+      </c>
+      <c r="J118" t="s">
+        <v>67</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="N118" t="s">
+        <v>92</v>
+      </c>
+      <c r="P118" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="119" ht="15.5" spans="2:16">
+      <c r="B119" s="11">
+        <v>20098</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F119" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G119" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H119" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I119" t="s">
+        <v>91</v>
+      </c>
+      <c r="J119" t="s">
+        <v>67</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119" s="17" t="s">
+        <v>281</v>
+      </c>
+      <c r="N119" t="s">
+        <v>92</v>
+      </c>
+      <c r="P119" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="120" ht="15.5" spans="2:16">
+      <c r="B120" s="10">
+        <v>20099</v>
+      </c>
+      <c r="C120">
+        <v>1</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>282</v>
+      </c>
+      <c r="F120" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G120" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H120" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I120" t="s">
+        <v>91</v>
+      </c>
+      <c r="J120" t="s">
+        <v>67</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="N120" t="s">
+        <v>92</v>
+      </c>
+      <c r="P120" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="121" ht="15.5" spans="2:16">
+      <c r="B121" s="11">
+        <v>20100</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="F121" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G121" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H121" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I121" t="s">
+        <v>91</v>
+      </c>
+      <c r="J121" t="s">
+        <v>67</v>
+      </c>
+      <c r="K121">
+        <v>0</v>
+      </c>
+      <c r="L121">
+        <v>0</v>
+      </c>
+      <c r="M121" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="N121" t="s">
+        <v>92</v>
+      </c>
+      <c r="P121" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="122" ht="15.5" spans="2:16">
+      <c r="B122" s="10">
+        <v>20101</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F122" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G122" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H122" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I122" t="s">
+        <v>91</v>
+      </c>
+      <c r="J122" t="s">
+        <v>67</v>
+      </c>
+      <c r="K122">
+        <v>0</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122" s="17" t="s">
+        <v>287</v>
+      </c>
+      <c r="N122" t="s">
+        <v>92</v>
+      </c>
+      <c r="P122" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="123" ht="15.5" spans="2:16">
+      <c r="B123" s="11">
+        <v>20102</v>
+      </c>
+      <c r="C123">
+        <v>1</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>288</v>
+      </c>
+      <c r="F123" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G123" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H123" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I123" t="s">
+        <v>91</v>
+      </c>
+      <c r="J123" t="s">
+        <v>67</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="N123" t="s">
+        <v>92</v>
+      </c>
+      <c r="P123" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="124" ht="15.5" spans="2:16">
+      <c r="B124" s="10">
+        <v>20103</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>290</v>
+      </c>
+      <c r="F124" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G124" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H124" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I124" t="s">
+        <v>91</v>
+      </c>
+      <c r="J124" t="s">
+        <v>67</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124" s="17" t="s">
+        <v>291</v>
+      </c>
+      <c r="N124" t="s">
+        <v>92</v>
+      </c>
+      <c r="P124" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="125" ht="15.5" spans="2:16">
+      <c r="B125" s="11">
+        <v>20104</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F125" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G125" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H125" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I125" t="s">
+        <v>91</v>
+      </c>
+      <c r="J125" t="s">
+        <v>67</v>
+      </c>
+      <c r="K125">
+        <v>0</v>
+      </c>
+      <c r="L125">
+        <v>0</v>
+      </c>
+      <c r="M125" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="N125" t="s">
+        <v>92</v>
+      </c>
+      <c r="P125" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="126" ht="15.5" spans="2:16">
+      <c r="B126" s="10">
+        <v>20105</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F126" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G126" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H126" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I126" t="s">
+        <v>91</v>
+      </c>
+      <c r="J126" t="s">
+        <v>67</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126" s="17" t="s">
+        <v>295</v>
+      </c>
+      <c r="N126" t="s">
+        <v>92</v>
+      </c>
+      <c r="P126" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="127" ht="15.5" spans="2:16">
+      <c r="B127" s="11">
+        <v>20106</v>
+      </c>
+      <c r="C127">
+        <v>1</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="F127" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G127" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H127" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I127" t="s">
+        <v>91</v>
+      </c>
+      <c r="J127" t="s">
+        <v>67</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="N127" t="s">
+        <v>92</v>
+      </c>
+      <c r="P127" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="128" ht="15.5" spans="2:16">
+      <c r="B128" s="10">
+        <v>20107</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F128" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G128" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H128" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I128" t="s">
+        <v>91</v>
+      </c>
+      <c r="J128" t="s">
+        <v>67</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="N128" t="s">
+        <v>92</v>
+      </c>
+      <c r="P128" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="129" ht="15.5" spans="2:16">
+      <c r="B129" s="11">
+        <v>20108</v>
+      </c>
+      <c r="C129">
+        <v>1</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="F129" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G129" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H129" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I129" t="s">
+        <v>91</v>
+      </c>
+      <c r="J129" t="s">
+        <v>67</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>0</v>
+      </c>
+      <c r="M129" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="N129" t="s">
+        <v>92</v>
+      </c>
+      <c r="P129" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="130" ht="15.5" spans="2:16">
+      <c r="B130" s="10">
+        <v>20109</v>
+      </c>
+      <c r="C130">
+        <v>1</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F130" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G130" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H130" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I130" t="s">
+        <v>91</v>
+      </c>
+      <c r="J130" t="s">
+        <v>67</v>
+      </c>
+      <c r="K130">
+        <v>0</v>
+      </c>
+      <c r="L130">
+        <v>0</v>
+      </c>
+      <c r="M130" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="N130" t="s">
+        <v>92</v>
+      </c>
+      <c r="P130" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="131" ht="15.5" spans="2:16">
+      <c r="B131" s="11">
+        <v>20110</v>
+      </c>
+      <c r="C131">
+        <v>1</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="F131" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G131" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H131" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I131" t="s">
+        <v>91</v>
+      </c>
+      <c r="J131" t="s">
+        <v>67</v>
+      </c>
+      <c r="K131">
+        <v>0</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131" s="17" t="s">
+        <v>305</v>
+      </c>
+      <c r="N131" t="s">
+        <v>92</v>
+      </c>
+      <c r="P131" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="132" ht="15.5" spans="2:16">
+      <c r="B132" s="10">
+        <v>20111</v>
+      </c>
+      <c r="C132">
+        <v>1</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>306</v>
+      </c>
+      <c r="F132" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G132" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H132" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I132" t="s">
+        <v>91</v>
+      </c>
+      <c r="J132" t="s">
+        <v>67</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132" s="17" t="s">
+        <v>307</v>
+      </c>
+      <c r="N132" t="s">
+        <v>92</v>
+      </c>
+      <c r="P132" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="133" ht="15.5" spans="2:16">
+      <c r="B133" s="11">
+        <v>20112</v>
+      </c>
+      <c r="C133">
+        <v>1</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F133" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G133" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H133" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I133" t="s">
+        <v>91</v>
+      </c>
+      <c r="J133" t="s">
+        <v>67</v>
+      </c>
+      <c r="K133">
+        <v>0</v>
+      </c>
+      <c r="L133">
+        <v>0</v>
+      </c>
+      <c r="M133" s="17" t="s">
+        <v>309</v>
+      </c>
+      <c r="N133" t="s">
+        <v>92</v>
+      </c>
+      <c r="P133" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="134" ht="15.5" spans="2:16">
+      <c r="B134" s="10">
+        <v>20113</v>
+      </c>
+      <c r="C134">
+        <v>1</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F134" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G134" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H134" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I134" t="s">
+        <v>91</v>
+      </c>
+      <c r="J134" t="s">
+        <v>67</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="N134" t="s">
+        <v>92</v>
+      </c>
+      <c r="P134" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="135" ht="15.5" spans="2:16">
+      <c r="B135" s="11">
+        <v>20114</v>
+      </c>
+      <c r="C135">
+        <v>1</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>312</v>
+      </c>
+      <c r="F135" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G135" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H135" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I135" t="s">
+        <v>91</v>
+      </c>
+      <c r="J135" t="s">
+        <v>67</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135" s="17" t="s">
+        <v>313</v>
+      </c>
+      <c r="N135" t="s">
+        <v>92</v>
+      </c>
+      <c r="P135" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="136" ht="15.5" spans="2:16">
+      <c r="B136" s="10">
+        <v>20115</v>
+      </c>
+      <c r="C136">
+        <v>1</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>314</v>
+      </c>
+      <c r="F136" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G136" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H136" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I136" t="s">
+        <v>91</v>
+      </c>
+      <c r="J136" t="s">
+        <v>67</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136" s="17" t="s">
+        <v>315</v>
+      </c>
+      <c r="N136" t="s">
+        <v>92</v>
+      </c>
+      <c r="P136" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="137" ht="15.5" spans="2:16">
+      <c r="B137" s="11">
+        <v>20116</v>
+      </c>
+      <c r="C137">
+        <v>1</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F137" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G137" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H137" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I137" t="s">
+        <v>91</v>
+      </c>
+      <c r="J137" t="s">
+        <v>67</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="N137" t="s">
+        <v>92</v>
+      </c>
+      <c r="P137" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="138" ht="15.5" spans="2:16">
+      <c r="B138" s="10">
+        <v>20117</v>
+      </c>
+      <c r="C138">
+        <v>1</v>
+      </c>
+      <c r="E138" s="13" t="s">
+        <v>318</v>
+      </c>
+      <c r="F138" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G138" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H138" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I138" t="s">
+        <v>91</v>
+      </c>
+      <c r="J138" t="s">
+        <v>67</v>
+      </c>
+      <c r="K138">
+        <v>0</v>
+      </c>
+      <c r="L138">
+        <v>0</v>
+      </c>
+      <c r="M138" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="N138" t="s">
+        <v>92</v>
+      </c>
+      <c r="P138" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="139" ht="15.5" spans="2:16">
+      <c r="B139" s="11">
+        <v>20118</v>
+      </c>
+      <c r="C139">
+        <v>1</v>
+      </c>
+      <c r="E139" s="13" t="s">
+        <v>320</v>
+      </c>
+      <c r="F139" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G139" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H139" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I139" t="s">
+        <v>91</v>
+      </c>
+      <c r="J139" t="s">
+        <v>67</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="N139" t="s">
+        <v>92</v>
+      </c>
+      <c r="P139" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="140" ht="15.5" spans="2:16">
+      <c r="B140" s="10">
+        <v>20119</v>
+      </c>
+      <c r="C140">
+        <v>1</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F140" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G140" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H140" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I140" t="s">
+        <v>91</v>
+      </c>
+      <c r="J140" t="s">
+        <v>67</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="N140" t="s">
+        <v>92</v>
+      </c>
+      <c r="P140" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" ht="15.5" spans="2:16">
+      <c r="B141" s="11">
+        <v>20120</v>
+      </c>
+      <c r="C141">
+        <v>1</v>
+      </c>
+      <c r="E141" s="13" t="s">
+        <v>324</v>
+      </c>
+      <c r="F141" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G141" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H141" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I141" t="s">
+        <v>91</v>
+      </c>
+      <c r="J141" t="s">
+        <v>67</v>
+      </c>
+      <c r="K141">
+        <v>0</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="N141" t="s">
+        <v>92</v>
+      </c>
+      <c r="P141" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="142" ht="15.5" spans="2:16">
+      <c r="B142" s="10">
+        <v>20121</v>
+      </c>
+      <c r="C142">
+        <v>1</v>
+      </c>
+      <c r="E142" s="13" t="s">
+        <v>326</v>
+      </c>
+      <c r="F142" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G142" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H142" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I142" t="s">
+        <v>91</v>
+      </c>
+      <c r="J142" t="s">
+        <v>67</v>
+      </c>
+      <c r="K142">
+        <v>0</v>
+      </c>
+      <c r="L142">
+        <v>0</v>
+      </c>
+      <c r="M142" s="17" t="s">
+        <v>327</v>
+      </c>
+      <c r="N142" t="s">
+        <v>92</v>
+      </c>
+      <c r="P142" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="143" ht="15.5" spans="2:16">
+      <c r="B143" s="11">
+        <v>20122</v>
+      </c>
+      <c r="C143">
+        <v>1</v>
+      </c>
+      <c r="E143" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F143" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G143" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H143" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I143" t="s">
+        <v>91</v>
+      </c>
+      <c r="J143" t="s">
+        <v>67</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143" s="17" t="s">
+        <v>329</v>
+      </c>
+      <c r="N143" t="s">
+        <v>92</v>
+      </c>
+      <c r="P143" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="144" ht="15.5" spans="2:16">
+      <c r="B144" s="10">
+        <v>20123</v>
+      </c>
+      <c r="C144">
+        <v>1</v>
+      </c>
+      <c r="E144" s="13" t="s">
+        <v>330</v>
+      </c>
+      <c r="F144" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G144" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H144" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I144" t="s">
+        <v>91</v>
+      </c>
+      <c r="J144" t="s">
+        <v>67</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>0</v>
+      </c>
+      <c r="M144" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="N144" t="s">
+        <v>92</v>
+      </c>
+      <c r="P144" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="145" ht="15.5" spans="2:16">
+      <c r="B145" s="11">
+        <v>20124</v>
+      </c>
+      <c r="C145">
+        <v>1</v>
+      </c>
+      <c r="E145" s="13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F145" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G145" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H145" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I145" t="s">
+        <v>91</v>
+      </c>
+      <c r="J145" t="s">
+        <v>67</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="N145" t="s">
+        <v>92</v>
+      </c>
+      <c r="P145" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="146" ht="15.5" spans="2:16">
+      <c r="B146" s="10">
+        <v>20125</v>
+      </c>
+      <c r="C146">
+        <v>1</v>
+      </c>
+      <c r="E146" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F146" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G146" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H146" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I146" t="s">
+        <v>91</v>
+      </c>
+      <c r="J146" t="s">
+        <v>67</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>0</v>
+      </c>
+      <c r="M146" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="N146" t="s">
+        <v>92</v>
+      </c>
+      <c r="P146" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="147" ht="15.5" spans="2:16">
+      <c r="B147" s="11">
+        <v>20126</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="E147" s="13" t="s">
+        <v>336</v>
+      </c>
+      <c r="F147" s="11">
+        <v>201001</v>
+      </c>
+      <c r="G147" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="H147" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I147" t="s">
+        <v>91</v>
+      </c>
+      <c r="J147" t="s">
+        <v>67</v>
+      </c>
+      <c r="K147">
+        <v>0</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="N147" t="s">
+        <v>92</v>
+      </c>
+      <c r="P147" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="O1:P1"/>
-    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E46" r:id="rId1" display="邪影芳灵符石" tooltip="http://www.baidu.com/link?url=l12dmBg3NEtasdYj_1eirbwFNLBePPbwIYwDp3ReKv__8V24U20rZWzU4HgghwRg0UjfDf_XvTl5hIaoArvShq"/>
+    <hyperlink ref="E47" r:id="rId2" display="破晓辰星符石" tooltip="http://www.baidu.com/link?url=vaEqnYVBkmW6puGC7wnDVm08jlaH8cZ0B0okAfCm3f4XGYFiPcPlIHddQhqbW8F7ar9ZAGjbHTqIbVyCYfXsla"/>
+    <hyperlink ref="E53" r:id="rId3" display="卓尔游侠符石" tooltip="http://www.baidu.com/link?url=I22yPUlo-PKmBww8jRjXkG7HTxJD8EvR23L-N1kCMPaMHpCMpAtBvl-YTUIygF1108oyABEEAVe71ELg6bnM0a"/>
+    <hyperlink ref="E62" r:id="rId4" display="天涯墨客符石" tooltip="http://www.baidu.com/link?url=oeNNFnvdtAHgdInZKgObdPaENoGBCwSK2V4TuIk3cKPDAWLqWSJr00h_y7KK8UwVjGM5GQemOWGiMBvxG4UaOq"/>
+    <hyperlink ref="E96" r:id="rId5" display="神谕者符石" tooltip="http://www.baidu.com/link?url=GUSqsirNIFse6jcyPMJ-scCyfsTfa3qsbf4tGD4ATQ2d44imbZhfmi6Y626qX3sw"/>
+    <hyperlink ref="E119" r:id="rId6" display="电炎绝手符石" tooltip="http://www.baidu.com/link?url=yqgChDdO7NcZRZvBYFJAeHP5IKhoZXtab_ZZEP5nJrf-i556n7JHzy8iIEQHnPHk"/>
+    <hyperlink ref="E122" r:id="rId7" display="裂魂人符石" tooltip="http://www.baidu.com/link?url=sPSrX7YpVeGO2go1fz05Dgpg2CvLKfO5ktD5uv5LxwOZG7cQL3R9NKm6mwtA17xJk9l-Uaw0Jsv5zO_v4dnxjq"/>
+    <hyperlink ref="E139" r:id="rId8" display="维萨吉符石" tooltip="http://www.baidu.com/link?url=b54vWxoxFCKV9kf4pvjVLyXVxnpCs5FgPT__PMBtwo0xRUe9fMVWNeRvHD8pYGxp"/>
+    <hyperlink ref="E141" r:id="rId9" display="术士符石" tooltip="http://www.baidu.com/link?url=RjGITYZHTKoyM7GsdndDIZTiMH8hWWpySGS4ODNOAaKsw3Q9PmTZfq3dZ8xBYfooZo_x5FaNdk81XaYHDMGVq2LoDKwrC_Hi6UfgLfl9hfa"/>
+    <hyperlink ref="E142" r:id="rId10" display="编织者符石" tooltip="http://www.baidu.com/link?url=8m5k2RsZExjbuFFM8XNcafXgauahVfHML8bqp3l4hdLtDJs0rwsxlY23iiaxHYPr"/>
+    <hyperlink ref="E145" r:id="rId11" display="艾欧符石" tooltip="http://www.baidu.com/link?url=N0EB_y3AiV_LvbrP4j-H1H5YFNq9kRJuvnwqedrel7WXbJHYPNLQxdP5xyPFlshD"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Doc/ExcelConfig/Datas/道具/ItemConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/道具/ItemConfig.xlsx
@@ -2417,8 +2417,8 @@
   <sheetPr/>
   <dimension ref="A1:Q270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H15" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="M270" sqref="M148:M270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/Doc/ExcelConfig/Datas/道具/ItemConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/道具/ItemConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="465">
   <si>
     <t>##</t>
   </si>
@@ -1313,6 +1313,9 @@
     <t>沙王符石</t>
   </si>
   <si>
+    <t>building_hero_sand_king</t>
+  </si>
+  <si>
     <t>暗影恶魔符石</t>
   </si>
   <si>
@@ -1422,6 +1425,9 @@
   </si>
   <si>
     <t>宙斯符石</t>
+  </si>
+  <si>
+    <t>building_hero_zuus</t>
   </si>
 </sst>
 </file>
@@ -2417,8 +2423,8 @@
   <sheetPr/>
   <dimension ref="A1:Q270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="M270" sqref="M148:M270"/>
+    <sheetView tabSelected="1" topLeftCell="H253" workbookViewId="0">
+      <selection activeCell="M277" sqref="M277"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -11664,7 +11670,7 @@
         <v>0</v>
       </c>
       <c r="M233" s="17" t="s">
-        <v>261</v>
+        <v>426</v>
       </c>
       <c r="N233" t="s">
         <v>339</v>
@@ -11681,7 +11687,7 @@
         <v>1</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F234" s="11">
         <v>201001</v>
@@ -11722,7 +11728,7 @@
         <v>1</v>
       </c>
       <c r="E235" s="13" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F235" s="11">
         <v>201001</v>
@@ -11763,7 +11769,7 @@
         <v>1</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F236" s="11">
         <v>201001</v>
@@ -11804,7 +11810,7 @@
         <v>1</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F237" s="11">
         <v>201001</v>
@@ -11845,7 +11851,7 @@
         <v>1</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F238" s="11">
         <v>201001</v>
@@ -11886,7 +11892,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="13" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F239" s="11">
         <v>201001</v>
@@ -11927,7 +11933,7 @@
         <v>1</v>
       </c>
       <c r="E240" s="13" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F240" s="11">
         <v>201001</v>
@@ -11968,7 +11974,7 @@
         <v>1</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F241" s="11">
         <v>201001</v>
@@ -12009,7 +12015,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="13" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F242" s="11">
         <v>201001</v>
@@ -12050,7 +12056,7 @@
         <v>1</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F243" s="11">
         <v>201001</v>
@@ -12091,7 +12097,7 @@
         <v>1</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F244" s="11">
         <v>201001</v>
@@ -12132,7 +12138,7 @@
         <v>1</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F245" s="11">
         <v>201001</v>
@@ -12173,7 +12179,7 @@
         <v>1</v>
       </c>
       <c r="E246" s="13" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F246" s="11">
         <v>201001</v>
@@ -12214,7 +12220,7 @@
         <v>1</v>
       </c>
       <c r="E247" s="13" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F247" s="11">
         <v>201001</v>
@@ -12255,7 +12261,7 @@
         <v>1</v>
       </c>
       <c r="E248" s="13" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F248" s="11">
         <v>201001</v>
@@ -12296,7 +12302,7 @@
         <v>1</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F249" s="11">
         <v>201001</v>
@@ -12337,7 +12343,7 @@
         <v>1</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F250" s="11">
         <v>201001</v>
@@ -12378,7 +12384,7 @@
         <v>1</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F251" s="11">
         <v>201001</v>
@@ -12419,7 +12425,7 @@
         <v>1</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F252" s="11">
         <v>201001</v>
@@ -12460,7 +12466,7 @@
         <v>1</v>
       </c>
       <c r="E253" s="13" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F253" s="11">
         <v>201001</v>
@@ -12501,7 +12507,7 @@
         <v>1</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F254" s="11">
         <v>201001</v>
@@ -12542,7 +12548,7 @@
         <v>1</v>
       </c>
       <c r="E255" s="13" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F255" s="11">
         <v>201001</v>
@@ -12583,7 +12589,7 @@
         <v>1</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F256" s="11">
         <v>201001</v>
@@ -12624,7 +12630,7 @@
         <v>1</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F257" s="11">
         <v>201001</v>
@@ -12665,7 +12671,7 @@
         <v>1</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F258" s="11">
         <v>201001</v>
@@ -12706,7 +12712,7 @@
         <v>1</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F259" s="11">
         <v>201001</v>
@@ -12747,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F260" s="11">
         <v>201001</v>
@@ -12788,7 +12794,7 @@
         <v>1</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F261" s="11">
         <v>201001</v>
@@ -12829,7 +12835,7 @@
         <v>1</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F262" s="11">
         <v>201001</v>
@@ -12870,7 +12876,7 @@
         <v>1</v>
       </c>
       <c r="E263" s="13" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F263" s="11">
         <v>201001</v>
@@ -12911,7 +12917,7 @@
         <v>1</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F264" s="11">
         <v>201001</v>
@@ -12952,7 +12958,7 @@
         <v>1</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F265" s="11">
         <v>201001</v>
@@ -12993,7 +12999,7 @@
         <v>1</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F266" s="11">
         <v>201001</v>
@@ -13034,7 +13040,7 @@
         <v>1</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F267" s="11">
         <v>201001</v>
@@ -13075,7 +13081,7 @@
         <v>1</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F268" s="11">
         <v>201001</v>
@@ -13116,7 +13122,7 @@
         <v>1</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F269" s="11">
         <v>201001</v>
@@ -13157,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F270" s="11">
         <v>201001</v>
@@ -13181,7 +13187,7 @@
         <v>0</v>
       </c>
       <c r="M270" s="17" t="s">
-        <v>335</v>
+        <v>464</v>
       </c>
       <c r="N270" t="s">
         <v>339</v>

--- a/Doc/ExcelConfig/Datas/道具/ItemConfig.xlsx
+++ b/Doc/ExcelConfig/Datas/道具/ItemConfig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="465">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1977" uniqueCount="463">
   <si>
     <t>##</t>
   </si>
@@ -818,7 +818,7 @@
     <t>沙王经验</t>
   </si>
   <si>
-    <t>building_hero_sandking</t>
+    <t>building_hero_sand_king</t>
   </si>
   <si>
     <t>暗影恶魔经验</t>
@@ -1040,7 +1040,7 @@
     <t>宙斯经验</t>
   </si>
   <si>
-    <t>building_hero_zeus</t>
+    <t>building_hero_zuus</t>
   </si>
   <si>
     <t>亚巴顿符石</t>
@@ -1313,9 +1313,6 @@
     <t>沙王符石</t>
   </si>
   <si>
-    <t>building_hero_sand_king</t>
-  </si>
-  <si>
     <t>暗影恶魔符石</t>
   </si>
   <si>
@@ -1425,9 +1422,6 @@
   </si>
   <si>
     <t>宙斯符石</t>
-  </si>
-  <si>
-    <t>building_hero_zuus</t>
   </si>
 </sst>
 </file>
@@ -2423,8 +2417,8 @@
   <sheetPr/>
   <dimension ref="A1:Q270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H253" workbookViewId="0">
-      <selection activeCell="M277" sqref="M277"/>
+    <sheetView tabSelected="1" topLeftCell="I235" workbookViewId="0">
+      <selection activeCell="R246" sqref="R246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -11670,7 +11664,7 @@
         <v>0</v>
       </c>
       <c r="M233" s="17" t="s">
-        <v>426</v>
+        <v>261</v>
       </c>
       <c r="N233" t="s">
         <v>339</v>
@@ -11687,7 +11681,7 @@
         <v>1</v>
       </c>
       <c r="E234" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="F234" s="11">
         <v>201001</v>
@@ -11728,7 +11722,7 @@
         <v>1</v>
       </c>
       <c r="E235" s="13" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="F235" s="11">
         <v>201001</v>
@@ -11769,7 +11763,7 @@
         <v>1</v>
       </c>
       <c r="E236" s="13" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="F236" s="11">
         <v>201001</v>
@@ -11810,7 +11804,7 @@
         <v>1</v>
       </c>
       <c r="E237" s="13" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="F237" s="11">
         <v>201001</v>
@@ -11851,7 +11845,7 @@
         <v>1</v>
       </c>
       <c r="E238" s="13" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F238" s="11">
         <v>201001</v>
@@ -11892,7 +11886,7 @@
         <v>1</v>
       </c>
       <c r="E239" s="13" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F239" s="11">
         <v>201001</v>
@@ -11933,7 +11927,7 @@
         <v>1</v>
       </c>
       <c r="E240" s="13" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="F240" s="11">
         <v>201001</v>
@@ -11974,7 +11968,7 @@
         <v>1</v>
       </c>
       <c r="E241" s="13" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F241" s="11">
         <v>201001</v>
@@ -12015,7 +12009,7 @@
         <v>1</v>
       </c>
       <c r="E242" s="13" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="F242" s="11">
         <v>201001</v>
@@ -12056,7 +12050,7 @@
         <v>1</v>
       </c>
       <c r="E243" s="13" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="F243" s="11">
         <v>201001</v>
@@ -12097,7 +12091,7 @@
         <v>1</v>
       </c>
       <c r="E244" s="13" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="F244" s="11">
         <v>201001</v>
@@ -12138,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="E245" s="13" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="F245" s="11">
         <v>201001</v>
@@ -12179,7 +12173,7 @@
         <v>1</v>
       </c>
       <c r="E246" s="13" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F246" s="11">
         <v>201001</v>
@@ -12220,7 +12214,7 @@
         <v>1</v>
       </c>
       <c r="E247" s="13" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="F247" s="11">
         <v>201001</v>
@@ -12261,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="E248" s="13" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="F248" s="11">
         <v>201001</v>
@@ -12302,7 +12296,7 @@
         <v>1</v>
       </c>
       <c r="E249" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="F249" s="11">
         <v>201001</v>
@@ -12343,7 +12337,7 @@
         <v>1</v>
       </c>
       <c r="E250" s="13" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="F250" s="11">
         <v>201001</v>
@@ -12384,7 +12378,7 @@
         <v>1</v>
       </c>
       <c r="E251" s="13" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F251" s="11">
         <v>201001</v>
@@ -12425,7 +12419,7 @@
         <v>1</v>
       </c>
       <c r="E252" s="13" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F252" s="11">
         <v>201001</v>
@@ -12466,7 +12460,7 @@
         <v>1</v>
       </c>
       <c r="E253" s="13" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F253" s="11">
         <v>201001</v>
@@ -12507,7 +12501,7 @@
         <v>1</v>
       </c>
       <c r="E254" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F254" s="11">
         <v>201001</v>
@@ -12548,7 +12542,7 @@
         <v>1</v>
       </c>
       <c r="E255" s="13" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="F255" s="11">
         <v>201001</v>
@@ -12589,7 +12583,7 @@
         <v>1</v>
       </c>
       <c r="E256" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="F256" s="11">
         <v>201001</v>
@@ -12630,7 +12624,7 @@
         <v>1</v>
       </c>
       <c r="E257" s="13" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="F257" s="11">
         <v>201001</v>
@@ -12671,7 +12665,7 @@
         <v>1</v>
       </c>
       <c r="E258" s="13" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="F258" s="11">
         <v>201001</v>
@@ -12712,7 +12706,7 @@
         <v>1</v>
       </c>
       <c r="E259" s="13" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="F259" s="11">
         <v>201001</v>
@@ -12753,7 +12747,7 @@
         <v>1</v>
       </c>
       <c r="E260" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="F260" s="11">
         <v>201001</v>
@@ -12794,7 +12788,7 @@
         <v>1</v>
       </c>
       <c r="E261" s="13" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="F261" s="11">
         <v>201001</v>
@@ -12835,7 +12829,7 @@
         <v>1</v>
       </c>
       <c r="E262" s="13" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="F262" s="11">
         <v>201001</v>
@@ -12876,7 +12870,7 @@
         <v>1</v>
       </c>
       <c r="E263" s="13" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="F263" s="11">
         <v>201001</v>
@@ -12917,7 +12911,7 @@
         <v>1</v>
       </c>
       <c r="E264" s="13" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="F264" s="11">
         <v>201001</v>
@@ -12958,7 +12952,7 @@
         <v>1</v>
       </c>
       <c r="E265" s="13" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="F265" s="11">
         <v>201001</v>
@@ -12999,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="E266" s="13" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="F266" s="11">
         <v>201001</v>
@@ -13040,7 +13034,7 @@
         <v>1</v>
       </c>
       <c r="E267" s="13" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F267" s="11">
         <v>201001</v>
@@ -13081,7 +13075,7 @@
         <v>1</v>
       </c>
       <c r="E268" s="13" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F268" s="11">
         <v>201001</v>
@@ -13122,7 +13116,7 @@
         <v>1</v>
       </c>
       <c r="E269" s="13" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F269" s="11">
         <v>201001</v>
@@ -13163,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="E270" s="13" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F270" s="11">
         <v>201001</v>
@@ -13187,7 +13181,7 @@
         <v>0</v>
       </c>
       <c r="M270" s="17" t="s">
-        <v>464</v>
+        <v>335</v>
       </c>
       <c r="N270" t="s">
         <v>339</v>
